--- a/부동산 강의/엑셀로 만드는 부동산 Financial Modeling/실물투자 실습.xlsx
+++ b/부동산 강의/엑셀로 만드는 부동산 Financial Modeling/실물투자 실습.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\QuantifyPro\부동산 강의\엑셀로 만드는 부동산 Financial Modeling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dwchae23\QuantifyPro\workplace\부동산 강의\엑셀로 만드는 부동산 Financial Modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F98F4F-AF48-4CE6-B18F-F3174F07123D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{A66BE50B-1CA2-4F56-BBA5-DE4625AD967E}"/>
+    <workbookView minimized="1" xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585"/>
   </bookViews>
   <sheets>
     <sheet name="A&amp;R" sheetId="5" r:id="rId1"/>
@@ -410,7 +409,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\);\-_)"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm"/>
@@ -419,7 +418,7 @@
     <numFmt numFmtId="180" formatCode="#&quot;년&quot;"/>
     <numFmt numFmtId="181" formatCode="#&quot;개&quot;&quot;월&quot;"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -818,50 +817,50 @@
     <xf numFmtId="176" fontId="3" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1655,36 +1654,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36227431-79D8-4C1A-80B1-66960553091A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AE41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="2" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="2"/>
-    <col min="6" max="6" width="11.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="2"/>
-    <col min="10" max="10" width="9.85546875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5" style="2" customWidth="1"/>
+    <col min="2" max="3" width="9.1640625" style="2"/>
+    <col min="4" max="4" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" style="2"/>
+    <col min="10" max="10" width="9.83203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="2" customWidth="1"/>
     <col min="13" max="13" width="12" style="2" customWidth="1"/>
-    <col min="14" max="15" width="9.140625" style="2"/>
-    <col min="16" max="16" width="2.42578125" style="2" customWidth="1"/>
-    <col min="17" max="34" width="9.140625" style="2"/>
-    <col min="35" max="35" width="9.140625" style="2" customWidth="1"/>
-    <col min="36" max="36" width="1.85546875" style="2" customWidth="1"/>
-    <col min="37" max="16384" width="9.140625" style="2"/>
+    <col min="14" max="15" width="9.1640625" style="2"/>
+    <col min="16" max="16" width="2.5" style="2" customWidth="1"/>
+    <col min="17" max="27" width="9.1640625" style="2"/>
+    <col min="28" max="28" width="13.33203125" style="2" customWidth="1"/>
+    <col min="29" max="29" width="9.1640625" style="2"/>
+    <col min="30" max="30" width="15.33203125" style="2" customWidth="1"/>
+    <col min="31" max="34" width="9.1640625" style="2"/>
+    <col min="35" max="35" width="9.1640625" style="2" customWidth="1"/>
+    <col min="36" max="36" width="1.83203125" style="2" customWidth="1"/>
+    <col min="37" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:31" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:31" s="4" customFormat="1" ht="13.5" customHeight="1">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1699,7 +1702,7 @@
       </c>
       <c r="AE2" s="2"/>
     </row>
-    <row r="3" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:31" ht="13.5" customHeight="1">
       <c r="AB3" s="6" t="s">
         <v>3</v>
       </c>
@@ -1710,7 +1713,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:31" ht="13.5" customHeight="1">
       <c r="AB4" s="7" t="s">
         <v>4</v>
       </c>
@@ -1721,7 +1724,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:31" ht="13.5" customHeight="1" thickBot="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1754,7 +1757,7 @@
       <c r="AD5" s="3"/>
       <c r="AE5" s="3"/>
     </row>
-    <row r="6" spans="1:31" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:31" ht="13.5" customHeight="1" thickTop="1">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -1762,12 +1765,12 @@
         <v>45545</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:31" ht="13.5" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:31" ht="13.5" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>21</v>
       </c>
@@ -1785,7 +1788,7 @@
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
     </row>
-    <row r="9" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:31" ht="13.5" customHeight="1">
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
@@ -1793,7 +1796,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:31" ht="13.5" customHeight="1">
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
@@ -1804,7 +1807,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:31" ht="13.5" customHeight="1">
       <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
@@ -1815,7 +1818,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:31" ht="13.5" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
@@ -1823,7 +1826,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:31" ht="13.5" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>30</v>
       </c>
@@ -1831,7 +1834,7 @@
         <v>45352</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:31" ht="13.5" customHeight="1">
       <c r="B14" s="2" t="s">
         <v>31</v>
       </c>
@@ -1840,7 +1843,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:31" ht="13.5" customHeight="1">
       <c r="B15" s="2" t="s">
         <v>32</v>
       </c>
@@ -1848,7 +1851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:31" ht="13.5" customHeight="1">
       <c r="B16" s="2" t="s">
         <v>33</v>
       </c>
@@ -1857,7 +1860,7 @@
         <v>47208</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:15" ht="13.5" customHeight="1">
       <c r="B17" s="2" t="s">
         <v>34</v>
       </c>
@@ -1865,7 +1868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:15" ht="13.5" customHeight="1">
       <c r="B18" s="11" t="s">
         <v>35</v>
       </c>
@@ -1883,7 +1886,7 @@
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
     </row>
-    <row r="19" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:15" ht="13.5" customHeight="1">
       <c r="B19" s="2" t="s">
         <v>36</v>
       </c>
@@ -1897,7 +1900,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:15" ht="13.5" customHeight="1">
       <c r="B20" s="2" t="s">
         <v>38</v>
       </c>
@@ -1921,7 +1924,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:15" ht="13.5" customHeight="1">
       <c r="B21" s="2" t="s">
         <v>40</v>
       </c>
@@ -1935,7 +1938,7 @@
         <v>43344</v>
       </c>
     </row>
-    <row r="22" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:15" ht="13.5" customHeight="1">
       <c r="B22" s="2" t="s">
         <v>42</v>
       </c>
@@ -1959,7 +1962,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:15" ht="13.5" customHeight="1">
       <c r="B23" s="2" t="s">
         <v>44</v>
       </c>
@@ -1980,34 +1983,34 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:15" ht="13.5" customHeight="1">
       <c r="B24" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C25" s="31" t="s">
+    <row r="25" spans="2:15" ht="13.5" customHeight="1">
+      <c r="C25" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="27" t="s">
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-    </row>
-    <row r="26" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C26" s="31"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+    </row>
+    <row r="26" spans="2:15" ht="13.5" customHeight="1">
+      <c r="C26" s="28"/>
       <c r="D26" s="26" t="s">
         <v>61</v>
       </c>
@@ -2041,12 +2044,12 @@
       <c r="N26" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="O26" s="32" t="s">
+      <c r="O26" s="29" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C27" s="33" t="s">
+    <row r="27" spans="2:15" ht="13.5" customHeight="1">
+      <c r="C27" s="30" t="s">
         <v>60</v>
       </c>
       <c r="D27" s="24">
@@ -2069,32 +2072,32 @@
         <v>5490</v>
       </c>
       <c r="J27" s="24">
-        <f>D27*py</f>
+        <f t="shared" ref="J27:O32" si="0">D27*py</f>
         <v>1509.7774999999999</v>
       </c>
       <c r="K27" s="24">
-        <f>E27*py</f>
+        <f t="shared" si="0"/>
         <v>150.94749999999999</v>
       </c>
       <c r="L27" s="24">
-        <f>F27*py</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M27" s="24">
-        <f>G27*py</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N27" s="24">
-        <f>H27*py</f>
-        <v>0</v>
-      </c>
-      <c r="O27" s="34">
-        <f>I27*py</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="31">
+        <f t="shared" si="0"/>
         <v>1660.7249999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C28" s="35" t="s">
+    <row r="28" spans="2:15" ht="13.5" customHeight="1">
+      <c r="C28" s="32" t="s">
         <v>55</v>
       </c>
       <c r="D28" s="25">
@@ -2111,36 +2114,36 @@
         <v>0</v>
       </c>
       <c r="I28" s="25">
-        <f t="shared" ref="I28:I31" si="0">SUM(D28:H28)</f>
+        <f t="shared" ref="I28:I31" si="1">SUM(D28:H28)</f>
         <v>10314</v>
       </c>
       <c r="J28" s="25">
-        <f>D28*py</f>
+        <f t="shared" si="0"/>
         <v>2566.1075000000001</v>
       </c>
       <c r="K28" s="25">
-        <f>E28*py</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L28" s="25">
-        <f>F28*py</f>
+        <f t="shared" si="0"/>
         <v>553.87749999999994</v>
       </c>
       <c r="M28" s="25">
-        <f>G28*py</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N28" s="25">
-        <f>H28*py</f>
-        <v>0</v>
-      </c>
-      <c r="O28" s="36">
-        <f>I28*py</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="33">
+        <f t="shared" si="0"/>
         <v>3119.9850000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="35" t="s">
+    <row r="29" spans="2:15" ht="13.5" customHeight="1">
+      <c r="C29" s="32" t="s">
         <v>56</v>
       </c>
       <c r="D29" s="25">
@@ -2159,36 +2162,36 @@
         <v>0</v>
       </c>
       <c r="I29" s="25">
+        <f t="shared" si="1"/>
+        <v>648</v>
+      </c>
+      <c r="J29" s="25">
         <f t="shared" si="0"/>
-        <v>648</v>
-      </c>
-      <c r="J29" s="25">
-        <f>D29*py</f>
         <v>0</v>
       </c>
       <c r="K29" s="25">
-        <f>E29*py</f>
+        <f t="shared" si="0"/>
         <v>196.01999999999998</v>
       </c>
       <c r="L29" s="25">
-        <f>F29*py</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M29" s="25">
-        <f>G29*py</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N29" s="25">
-        <f>H29*py</f>
-        <v>0</v>
-      </c>
-      <c r="O29" s="36">
-        <f>I29*py</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="33">
+        <f t="shared" si="0"/>
         <v>196.01999999999998</v>
       </c>
     </row>
-    <row r="30" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C30" s="35" t="s">
+    <row r="30" spans="2:15" ht="13.5" customHeight="1">
+      <c r="C30" s="32" t="s">
         <v>57</v>
       </c>
       <c r="D30" s="25">
@@ -2205,36 +2208,36 @@
         <v>60</v>
       </c>
       <c r="I30" s="25">
+        <f t="shared" si="1"/>
+        <v>16634</v>
+      </c>
+      <c r="J30" s="25">
         <f t="shared" si="0"/>
-        <v>16634</v>
-      </c>
-      <c r="J30" s="25">
-        <f>D30*py</f>
         <v>4424.6674999999996</v>
       </c>
       <c r="K30" s="25">
-        <f>E30*py</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L30" s="25">
-        <f>F30*py</f>
+        <f t="shared" si="0"/>
         <v>588.96749999999997</v>
       </c>
       <c r="M30" s="25">
-        <f>G30*py</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N30" s="25">
-        <f>H30*py</f>
+        <f t="shared" si="0"/>
         <v>18.149999999999999</v>
       </c>
-      <c r="O30" s="36">
-        <f>I30*py</f>
+      <c r="O30" s="33">
+        <f t="shared" si="0"/>
         <v>5031.7849999999999</v>
       </c>
     </row>
-    <row r="31" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C31" s="35" t="s">
+    <row r="31" spans="2:15" ht="13.5" customHeight="1">
+      <c r="C31" s="32" t="s">
         <v>58</v>
       </c>
       <c r="D31" s="25">
@@ -2253,93 +2256,93 @@
         <v>0</v>
       </c>
       <c r="I31" s="25">
+        <f t="shared" si="1"/>
+        <v>1130</v>
+      </c>
+      <c r="J31" s="25">
         <f t="shared" si="0"/>
-        <v>1130</v>
-      </c>
-      <c r="J31" s="25">
-        <f>D31*py</f>
         <v>0</v>
       </c>
       <c r="K31" s="25">
-        <f>E31*py</f>
+        <f t="shared" si="0"/>
         <v>194.81</v>
       </c>
       <c r="L31" s="25">
-        <f>F31*py</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M31" s="25">
-        <f>G31*py</f>
+        <f t="shared" si="0"/>
         <v>147.01499999999999</v>
       </c>
       <c r="N31" s="25">
-        <f>H31*py</f>
-        <v>0</v>
-      </c>
-      <c r="O31" s="36">
-        <f>I31*py</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="33">
+        <f t="shared" si="0"/>
         <v>341.82499999999999</v>
       </c>
     </row>
-    <row r="32" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C32" s="37" t="s">
+    <row r="32" spans="2:15" ht="13.5" customHeight="1">
+      <c r="C32" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="30">
+      <c r="D32" s="27">
         <f>SUM(D27:D31)</f>
         <v>28101</v>
       </c>
-      <c r="E32" s="30">
-        <f t="shared" ref="E32:I32" si="1">SUM(E27:E31)</f>
+      <c r="E32" s="27">
+        <f t="shared" ref="E32:I32" si="2">SUM(E27:E31)</f>
         <v>1791</v>
       </c>
-      <c r="F32" s="30">
-        <f t="shared" si="1"/>
+      <c r="F32" s="27">
+        <f t="shared" si="2"/>
         <v>3778</v>
       </c>
-      <c r="G32" s="30">
-        <f t="shared" si="1"/>
+      <c r="G32" s="27">
+        <f t="shared" si="2"/>
         <v>486</v>
       </c>
-      <c r="H32" s="30">
-        <f t="shared" si="1"/>
+      <c r="H32" s="27">
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="I32" s="30">
-        <f t="shared" si="1"/>
+      <c r="I32" s="27">
+        <f t="shared" si="2"/>
         <v>34216</v>
       </c>
       <c r="J32" s="22">
-        <f>D32*py</f>
+        <f t="shared" si="0"/>
         <v>8500.5524999999998</v>
       </c>
       <c r="K32" s="22">
-        <f>E32*py</f>
+        <f t="shared" si="0"/>
         <v>541.77750000000003</v>
       </c>
       <c r="L32" s="22">
-        <f>F32*py</f>
+        <f t="shared" si="0"/>
         <v>1142.845</v>
       </c>
       <c r="M32" s="22">
-        <f>G32*py</f>
+        <f t="shared" si="0"/>
         <v>147.01499999999999</v>
       </c>
       <c r="N32" s="22">
-        <f>H32*py</f>
+        <f t="shared" si="0"/>
         <v>18.149999999999999</v>
       </c>
-      <c r="O32" s="38">
-        <f>I32*py</f>
+      <c r="O32" s="35">
+        <f t="shared" si="0"/>
         <v>10350.34</v>
       </c>
     </row>
-    <row r="33" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:14" ht="13.5" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:14" ht="13.5" customHeight="1">
       <c r="C34" s="42" t="s">
         <v>54</v>
       </c>
@@ -2350,24 +2353,24 @@
       <c r="F34" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="G34" s="27" t="s">
+      <c r="G34" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="H34" s="29"/>
+      <c r="H34" s="41"/>
       <c r="I34" s="23"/>
-      <c r="J34" s="27" t="s">
+      <c r="J34" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="K34" s="29"/>
-      <c r="L34" s="27" t="s">
+      <c r="K34" s="41"/>
+      <c r="L34" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="M34" s="29"/>
-      <c r="N34" s="41" t="s">
+      <c r="M34" s="41"/>
+      <c r="N34" s="38" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:14" ht="13.5" customHeight="1">
       <c r="C35" s="44"/>
       <c r="D35" s="45"/>
       <c r="E35" s="47"/>
@@ -2393,12 +2396,12 @@
       <c r="M35" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="N35" s="32" t="s">
+      <c r="N35" s="29" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C36" s="39" t="str">
+    <row r="36" spans="2:14" ht="13.5" customHeight="1">
+      <c r="C36" s="36" t="str">
         <f>C27</f>
         <v>지상3층</v>
       </c>
@@ -2411,10 +2414,10 @@
       <c r="F36" s="22">
         <v>1687</v>
       </c>
-      <c r="G36" s="40">
+      <c r="G36" s="37">
         <v>45170</v>
       </c>
-      <c r="H36" s="40">
+      <c r="H36" s="37">
         <v>46235</v>
       </c>
       <c r="I36" s="22">
@@ -2434,13 +2437,13 @@
         <f>F36*L36/unit</f>
         <v>3.3740000000000001</v>
       </c>
-      <c r="N36" s="38">
+      <c r="N36" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C37" s="39" t="str">
-        <f t="shared" ref="C37:C41" si="2">C28</f>
+    <row r="37" spans="2:14" ht="13.5" customHeight="1">
+      <c r="C37" s="36" t="str">
+        <f t="shared" ref="C37:C41" si="3">C28</f>
         <v>지상2층</v>
       </c>
       <c r="D37" s="22" t="s">
@@ -2452,10 +2455,10 @@
       <c r="F37" s="22">
         <v>562</v>
       </c>
-      <c r="G37" s="40">
+      <c r="G37" s="37">
         <v>45170</v>
       </c>
-      <c r="H37" s="40">
+      <c r="H37" s="37">
         <v>46235</v>
       </c>
       <c r="I37" s="22">
@@ -2475,13 +2478,13 @@
         <f>F37*L37/unit</f>
         <v>0</v>
       </c>
-      <c r="N37" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C38" s="39" t="str">
-        <f t="shared" si="2"/>
+      <c r="N37" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" ht="13.5" customHeight="1">
+      <c r="C38" s="36" t="str">
+        <f t="shared" si="3"/>
         <v>지상1층</v>
       </c>
       <c r="D38" s="22" t="s">
@@ -2493,10 +2496,10 @@
       <c r="F38" s="22">
         <v>2807</v>
       </c>
-      <c r="G38" s="40">
+      <c r="G38" s="37">
         <v>45170</v>
       </c>
-      <c r="H38" s="40">
+      <c r="H38" s="37">
         <v>46235</v>
       </c>
       <c r="I38" s="22">
@@ -2516,13 +2519,13 @@
         <f>F38*L38/unit</f>
         <v>5.6139999999999999</v>
       </c>
-      <c r="N38" s="38">
+      <c r="N38" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C39" s="39" t="str">
-        <f t="shared" si="2"/>
+    <row r="39" spans="2:14" ht="13.5" customHeight="1">
+      <c r="C39" s="36" t="str">
+        <f t="shared" si="3"/>
         <v>지하1층</v>
       </c>
       <c r="D39" s="22" t="s">
@@ -2534,10 +2537,10 @@
       <c r="F39" s="22">
         <v>599</v>
       </c>
-      <c r="G39" s="40">
+      <c r="G39" s="37">
         <v>44774</v>
       </c>
-      <c r="H39" s="40">
+      <c r="H39" s="37">
         <v>45505</v>
       </c>
       <c r="I39" s="22">
@@ -2557,13 +2560,13 @@
         <f>F39*L39/unit</f>
         <v>1.198</v>
       </c>
-      <c r="N39" s="38">
+      <c r="N39" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C40" s="39" t="str">
-        <f t="shared" si="2"/>
+    <row r="40" spans="2:14" ht="13.5" customHeight="1">
+      <c r="C40" s="36" t="str">
+        <f t="shared" si="3"/>
         <v>지하2층</v>
       </c>
       <c r="D40" s="22" t="s">
@@ -2575,10 +2578,10 @@
       <c r="F40" s="22">
         <v>4695</v>
       </c>
-      <c r="G40" s="40">
+      <c r="G40" s="37">
         <v>44774</v>
       </c>
-      <c r="H40" s="40">
+      <c r="H40" s="37">
         <v>45505</v>
       </c>
       <c r="I40" s="22">
@@ -2598,13 +2601,13 @@
         <f>F40*L40/unit</f>
         <v>9.39</v>
       </c>
-      <c r="N40" s="38">
+      <c r="N40" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C41" s="39" t="str">
-        <f t="shared" si="2"/>
+    <row r="41" spans="2:14" ht="13.5" customHeight="1">
+      <c r="C41" s="36" t="str">
+        <f t="shared" si="3"/>
         <v>합계</v>
       </c>
       <c r="D41" s="22"/>
@@ -2613,8 +2616,8 @@
         <f>SUM(F36:F40)</f>
         <v>10350</v>
       </c>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
       <c r="I41" s="22">
         <f>SUM(I36:I40)</f>
         <v>1481.7</v>
@@ -2629,7 +2632,7 @@
         <f>SUM(M36:M40)</f>
         <v>19.576000000000001</v>
       </c>
-      <c r="N41" s="38"/>
+      <c r="N41" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2650,20 +2653,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE0CAC20-6511-4AAB-B42E-BE6AF23B95F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AE7"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="2.5" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:31" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:31" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2678,7 +2681,7 @@
       </c>
       <c r="AE2" s="2"/>
     </row>
-    <row r="3" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:31" ht="13.5" customHeight="1">
       <c r="AB3" s="6" t="s">
         <v>3</v>
       </c>
@@ -2689,7 +2692,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:31" ht="13.5" customHeight="1">
       <c r="AB4" s="7" t="s">
         <v>4</v>
       </c>
@@ -2700,7 +2703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:31" ht="13.5" customHeight="1" thickBot="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2733,7 +2736,7 @@
       <c r="AD5" s="3"/>
       <c r="AE5" s="3"/>
     </row>
-    <row r="6" spans="1:31" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:31" ht="13.5" customHeight="1" thickTop="1">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -2741,7 +2744,7 @@
         <v>45545</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:31" ht="13.5" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -2756,20 +2759,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E29AA8C8-F9BA-4F8F-97A0-393898A3F264}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AE7"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="2.5" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:31" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:31" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2784,7 +2787,7 @@
       </c>
       <c r="AE2" s="2"/>
     </row>
-    <row r="3" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:31" ht="13.5" customHeight="1">
       <c r="AB3" s="6" t="s">
         <v>3</v>
       </c>
@@ -2795,7 +2798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:31" ht="13.5" customHeight="1">
       <c r="AB4" s="7" t="s">
         <v>4</v>
       </c>
@@ -2806,7 +2809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:31" ht="13.5" customHeight="1" thickBot="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2839,7 +2842,7 @@
       <c r="AD5" s="3"/>
       <c r="AE5" s="3"/>
     </row>
-    <row r="6" spans="1:31" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:31" ht="13.5" customHeight="1" thickTop="1">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -2847,7 +2850,7 @@
         <v>45545</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:31" ht="13.5" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
@@ -2862,20 +2865,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC3D4C2-E623-4C7A-B921-89CF2DEE6A04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AE7"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="2.5" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:31" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:31" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2890,7 +2893,7 @@
       </c>
       <c r="AE2" s="2"/>
     </row>
-    <row r="3" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:31" ht="13.5" customHeight="1">
       <c r="AB3" s="6" t="s">
         <v>3</v>
       </c>
@@ -2901,7 +2904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:31" ht="13.5" customHeight="1">
       <c r="AB4" s="7" t="s">
         <v>4</v>
       </c>
@@ -2912,7 +2915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:31" ht="13.5" customHeight="1" thickBot="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2945,7 +2948,7 @@
       <c r="AD5" s="3"/>
       <c r="AE5" s="3"/>
     </row>
-    <row r="6" spans="1:31" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:31" ht="13.5" customHeight="1" thickTop="1">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -2953,7 +2956,7 @@
         <v>45545</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:31" ht="13.5" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -2968,20 +2971,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D343408A-CA94-4914-B88F-C2B51C875129}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AE7"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="2.5" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:31" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:31" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2996,7 +2999,7 @@
       </c>
       <c r="AE2" s="2"/>
     </row>
-    <row r="3" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:31" ht="13.5" customHeight="1">
       <c r="AB3" s="6" t="s">
         <v>3</v>
       </c>
@@ -3007,7 +3010,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:31" ht="13.5" customHeight="1">
       <c r="AB4" s="7" t="s">
         <v>4</v>
       </c>
@@ -3018,7 +3021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:31" ht="13.5" customHeight="1" thickBot="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -3051,7 +3054,7 @@
       <c r="AD5" s="3"/>
       <c r="AE5" s="3"/>
     </row>
-    <row r="6" spans="1:31" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:31" ht="13.5" customHeight="1" thickTop="1">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -3059,7 +3062,7 @@
         <v>45545</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:31" ht="13.5" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -3074,20 +3077,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF54EDE-9ADE-4A06-999E-C7121BC2D349}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AE7"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="2.5" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:31" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:31" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3102,7 +3105,7 @@
       </c>
       <c r="AE2" s="2"/>
     </row>
-    <row r="3" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:31" ht="13.5" customHeight="1">
       <c r="AB3" s="6" t="s">
         <v>3</v>
       </c>
@@ -3113,7 +3116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:31" ht="13.5" customHeight="1">
       <c r="AB4" s="7" t="s">
         <v>4</v>
       </c>
@@ -3124,7 +3127,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:31" ht="13.5" customHeight="1" thickBot="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -3157,7 +3160,7 @@
       <c r="AD5" s="3"/>
       <c r="AE5" s="3"/>
     </row>
-    <row r="6" spans="1:31" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:31" ht="13.5" customHeight="1" thickTop="1">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -3165,7 +3168,7 @@
         <v>45545</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:31" ht="13.5" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
@@ -3180,20 +3183,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EEC162-C597-44D8-BBFD-62FF7388DFF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AE7"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="2.5" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:31" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:31" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3208,7 +3211,7 @@
       </c>
       <c r="AE2" s="2"/>
     </row>
-    <row r="3" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:31" ht="13.5" customHeight="1">
       <c r="AB3" s="6" t="s">
         <v>3</v>
       </c>
@@ -3219,7 +3222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:31" ht="13.5" customHeight="1">
       <c r="AB4" s="7" t="s">
         <v>4</v>
       </c>
@@ -3230,7 +3233,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:31" ht="13.5" customHeight="1" thickBot="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -3263,7 +3266,7 @@
       <c r="AD5" s="3"/>
       <c r="AE5" s="3"/>
     </row>
-    <row r="6" spans="1:31" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:31" ht="13.5" customHeight="1" thickTop="1">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -3271,7 +3274,7 @@
         <v>45545</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:31" ht="13.5" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
@@ -3286,20 +3289,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D16D763-C2CD-4838-9082-92BC0369E53F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AE7"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="2.5" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:31" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:31" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3314,7 +3317,7 @@
       </c>
       <c r="AE2" s="2"/>
     </row>
-    <row r="3" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:31" ht="13.5" customHeight="1">
       <c r="AB3" s="6" t="s">
         <v>3</v>
       </c>
@@ -3325,7 +3328,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:31" ht="13.5" customHeight="1">
       <c r="AB4" s="7" t="s">
         <v>4</v>
       </c>
@@ -3336,7 +3339,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:31" ht="13.5" customHeight="1" thickBot="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -3369,7 +3372,7 @@
       <c r="AD5" s="3"/>
       <c r="AE5" s="3"/>
     </row>
-    <row r="6" spans="1:31" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:31" ht="13.5" customHeight="1" thickTop="1">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -3377,7 +3380,7 @@
         <v>45545</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:31" ht="13.5" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -3392,20 +3395,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABC9297A-3FDF-4CB0-811D-DF05045D4A73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AE7"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="2.5" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:31" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:31" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3420,7 +3423,7 @@
       </c>
       <c r="AE2" s="2"/>
     </row>
-    <row r="3" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:31" ht="13.5" customHeight="1">
       <c r="AB3" s="6" t="s">
         <v>3</v>
       </c>
@@ -3431,7 +3434,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:31" ht="13.5" customHeight="1">
       <c r="AB4" s="7" t="s">
         <v>4</v>
       </c>
@@ -3442,7 +3445,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:31" ht="13.5" customHeight="1" thickBot="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -3475,7 +3478,7 @@
       <c r="AD5" s="3"/>
       <c r="AE5" s="3"/>
     </row>
-    <row r="6" spans="1:31" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:31" ht="13.5" customHeight="1" thickTop="1">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -3483,7 +3486,7 @@
         <v>45545</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:31" ht="13.5" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -3498,20 +3501,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA84621-D1DA-4208-8423-C477EA5CE9E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AE7"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="2.5" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:31" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:31" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3526,7 +3529,7 @@
       </c>
       <c r="AE2" s="2"/>
     </row>
-    <row r="3" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:31" ht="13.5" customHeight="1">
       <c r="AB3" s="6" t="s">
         <v>3</v>
       </c>
@@ -3537,7 +3540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:31" ht="13.5" customHeight="1">
       <c r="AB4" s="7" t="s">
         <v>4</v>
       </c>
@@ -3548,7 +3551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:31" ht="13.5" customHeight="1" thickBot="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -3581,7 +3584,7 @@
       <c r="AD5" s="3"/>
       <c r="AE5" s="3"/>
     </row>
-    <row r="6" spans="1:31" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:31" ht="13.5" customHeight="1" thickTop="1">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -3589,7 +3592,7 @@
         <v>45545</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:31" ht="13.5" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>

--- a/부동산 강의/엑셀로 만드는 부동산 Financial Modeling/실물투자 실습.xlsx
+++ b/부동산 강의/엑셀로 만드는 부동산 Financial Modeling/실물투자 실습.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\QuantifyPro\부동산 강의\엑셀로 만드는 부동산 Financial Modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F98F4F-AF48-4CE6-B18F-F3174F07123D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A671871C-53E3-4F1C-9FCB-E58A8C60734E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{A66BE50B-1CA2-4F56-BBA5-DE4625AD967E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A66BE50B-1CA2-4F56-BBA5-DE4625AD967E}"/>
   </bookViews>
   <sheets>
     <sheet name="A&amp;R" sheetId="5" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="174">
   <si>
     <t>00물류센터 투자모델</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -406,20 +406,397 @@
     <t>(개월/연)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>투자비 산정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매입가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토지분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부대비용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMC 매입수수료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실사/자문수수료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 감정평가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 법률실사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 재무실사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 시장실사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 물리실사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 취득관련 법무사 비용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 실사 예비비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금융비용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담보신탁 비용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선취 수수료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총액인수 수수료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취득세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주식발행비용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록면허세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지방교육세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>법무사 수수료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매입세액 불공제액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공시지가의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물비율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매입가격의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견적가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재원조달계획 참조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과세표준의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자본금의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산정근거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과세표준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VAT과세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VAT합계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물분VAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토지분VAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조달 필요액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투자비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VAT건물분(환급분)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재원조달 계획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자기자본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보통주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우선주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타인자본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담보대출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VAT Loan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주1) 보증금이 담보대출에 선행한다고 가정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VAT환급일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증자일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누적배당률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인출일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상환일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대출기간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연 이자율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선취수수료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All-In 이자율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LTV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt; 상반기에 취득했기 때문(하반기라면 2월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매각차익분배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총액인수수수료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이자지급방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회계기간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운영연차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운영기간 index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누적운영기간 index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mod함수 index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 현재 Rent-roll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약기간 index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약종료일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명목임대료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>렌트프리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임대면적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1 임대료 수입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명목 월임대료(원/평)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실질 월임대료(원/평)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임대료 수입 합계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2 관리비 수입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월관리비(원/평)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리비 수입 합계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3 보증금 현금흐름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기말</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="15">
     <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\);\-_)"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm"/>
     <numFmt numFmtId="178" formatCode="#,##0.0000_);[Red]\(#,##0.0000\);\-_)"/>
     <numFmt numFmtId="179" formatCode="yyyy\/mm"/>
     <numFmt numFmtId="180" formatCode="#&quot;년&quot;"/>
     <numFmt numFmtId="181" formatCode="#&quot;개&quot;&quot;월&quot;"/>
+    <numFmt numFmtId="182" formatCode="#,##0.0_);[Red]\(#,##0.0\);\-_)"/>
+    <numFmt numFmtId="183" formatCode="0.0%"/>
+    <numFmt numFmtId="184" formatCode="#,##0&quot;개&quot;&quot;월&quot;_);[Red]\(#,##0\);\-_)&quot;개&quot;&quot;월&quot;"/>
+    <numFmt numFmtId="185" formatCode="#,##0&quot;개&quot;&quot;월&quot;\ &quot;후&quot;&quot;취&quot;_);[Red]\(#,##0\);\-_)"/>
+    <numFmt numFmtId="186" formatCode="#,##0&quot;개&quot;&quot;월&quot;_);[Red]\(#,##0\);\-_)"/>
+    <numFmt numFmtId="187" formatCode="#,##0&quot;기&quot;_);[Red]\(#,##0\);\-_)"/>
+    <numFmt numFmtId="189" formatCode="#,##0&quot;년차&quot;_);[Red]\(#,##0\);\-_)"/>
+    <numFmt numFmtId="190" formatCode="#,##0&quot;원&quot;_);[Red]\(#,##0\);\-_)"/>
+    <numFmt numFmtId="191" formatCode="#,##0&quot;평&quot;_);[Red]\(#,##0\);\-_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -498,8 +875,56 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="KoPubWorld돋움체 Medium"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="4"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="9"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF00B050"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -554,8 +979,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -730,13 +1161,144 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -821,48 +1383,48 @@
     <xf numFmtId="176" fontId="3" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -881,8 +1443,249 @@
     <xf numFmtId="176" fontId="3" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="12" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="4" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="5" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="15" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="3" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="백분율" xfId="1" builtinId="5"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -902,16 +1705,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>339621</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>72118</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>453567</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>31948</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>306458</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>420403</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>55079</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -934,8 +1737,96 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5987946" y="415018"/>
-          <a:ext cx="7282037" cy="3452132"/>
+          <a:off x="20211138" y="1447091"/>
+          <a:ext cx="7314694" cy="3560988"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>31068</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>147204</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>112378</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>48826</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2" descr="텍스트, 스크린샷, 번호, 도표이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0496F798-7FFB-35B5-EA3A-29DA82F5EB45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20795568" y="5169477"/>
+          <a:ext cx="12810174" cy="7867985"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>229663</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>62082</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3" descr="텍스트, 스크린샷, 번호, 폰트이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC0B27E0-AB1D-8E85-D068-F09B25B59C1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11201400" y="2057399"/>
+          <a:ext cx="10116613" cy="6920083"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -951,23 +1842,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>339621</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>72118</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>250253</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>31357</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>306458</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>561018</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>118692</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1" descr="텍스트, 영수증, 스크린샷, 폰트이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
+        <xdr:cNvPr id="3" name="그림 2" descr="텍스트, 스크린샷, 폰트, 번호이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EDD9A91-3694-4146-8608-22CA615427C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B44822E4-F810-27B1-B11D-02A725009171}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -983,8 +1874,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5987946" y="415018"/>
-          <a:ext cx="7282037" cy="3452132"/>
+          <a:off x="14024231" y="6988748"/>
+          <a:ext cx="8278635" cy="6001118"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1658,8 +2549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36227431-79D8-4C1A-80B1-66960553091A}">
   <dimension ref="A2:AE41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView showGridLines="0" showWhiteSpace="0" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36:H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1986,28 +2877,28 @@
       </c>
     </row>
     <row r="25" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="27" t="s">
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
     </row>
     <row r="26" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C26" s="31"/>
+      <c r="C26" s="29"/>
       <c r="D26" s="26" t="s">
         <v>61</v>
       </c>
@@ -2041,12 +2932,12 @@
       <c r="N26" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="O26" s="32" t="s">
+      <c r="O26" s="27" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="27" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="30" t="s">
         <v>60</v>
       </c>
       <c r="D27" s="24">
@@ -2069,32 +2960,32 @@
         <v>5490</v>
       </c>
       <c r="J27" s="24">
-        <f>D27*py</f>
+        <f t="shared" ref="J27:O32" si="0">D27*py</f>
         <v>1509.7774999999999</v>
       </c>
       <c r="K27" s="24">
-        <f>E27*py</f>
+        <f t="shared" si="0"/>
         <v>150.94749999999999</v>
       </c>
       <c r="L27" s="24">
-        <f>F27*py</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M27" s="24">
-        <f>G27*py</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N27" s="24">
-        <f>H27*py</f>
-        <v>0</v>
-      </c>
-      <c r="O27" s="34">
-        <f>I27*py</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="31">
+        <f t="shared" si="0"/>
         <v>1660.7249999999999</v>
       </c>
     </row>
     <row r="28" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="32" t="s">
         <v>55</v>
       </c>
       <c r="D28" s="25">
@@ -2111,36 +3002,36 @@
         <v>0</v>
       </c>
       <c r="I28" s="25">
-        <f t="shared" ref="I28:I31" si="0">SUM(D28:H28)</f>
+        <f t="shared" ref="I28:I31" si="1">SUM(D28:H28)</f>
         <v>10314</v>
       </c>
       <c r="J28" s="25">
-        <f>D28*py</f>
+        <f t="shared" si="0"/>
         <v>2566.1075000000001</v>
       </c>
       <c r="K28" s="25">
-        <f>E28*py</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L28" s="25">
-        <f>F28*py</f>
+        <f t="shared" si="0"/>
         <v>553.87749999999994</v>
       </c>
       <c r="M28" s="25">
-        <f>G28*py</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N28" s="25">
-        <f>H28*py</f>
-        <v>0</v>
-      </c>
-      <c r="O28" s="36">
-        <f>I28*py</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="33">
+        <f t="shared" si="0"/>
         <v>3119.9850000000001</v>
       </c>
     </row>
     <row r="29" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="32" t="s">
         <v>56</v>
       </c>
       <c r="D29" s="25">
@@ -2159,36 +3050,36 @@
         <v>0</v>
       </c>
       <c r="I29" s="25">
+        <f t="shared" si="1"/>
+        <v>648</v>
+      </c>
+      <c r="J29" s="25">
         <f t="shared" si="0"/>
-        <v>648</v>
-      </c>
-      <c r="J29" s="25">
-        <f>D29*py</f>
         <v>0</v>
       </c>
       <c r="K29" s="25">
-        <f>E29*py</f>
+        <f t="shared" si="0"/>
         <v>196.01999999999998</v>
       </c>
       <c r="L29" s="25">
-        <f>F29*py</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M29" s="25">
-        <f>G29*py</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N29" s="25">
-        <f>H29*py</f>
-        <v>0</v>
-      </c>
-      <c r="O29" s="36">
-        <f>I29*py</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="33">
+        <f t="shared" si="0"/>
         <v>196.01999999999998</v>
       </c>
     </row>
     <row r="30" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="32" t="s">
         <v>57</v>
       </c>
       <c r="D30" s="25">
@@ -2205,36 +3096,36 @@
         <v>60</v>
       </c>
       <c r="I30" s="25">
+        <f t="shared" si="1"/>
+        <v>16634</v>
+      </c>
+      <c r="J30" s="25">
         <f t="shared" si="0"/>
-        <v>16634</v>
-      </c>
-      <c r="J30" s="25">
-        <f>D30*py</f>
         <v>4424.6674999999996</v>
       </c>
       <c r="K30" s="25">
-        <f>E30*py</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L30" s="25">
-        <f>F30*py</f>
+        <f t="shared" si="0"/>
         <v>588.96749999999997</v>
       </c>
       <c r="M30" s="25">
-        <f>G30*py</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N30" s="25">
-        <f>H30*py</f>
+        <f t="shared" si="0"/>
         <v>18.149999999999999</v>
       </c>
-      <c r="O30" s="36">
-        <f>I30*py</f>
+      <c r="O30" s="33">
+        <f t="shared" si="0"/>
         <v>5031.7849999999999</v>
       </c>
     </row>
     <row r="31" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="32" t="s">
         <v>58</v>
       </c>
       <c r="D31" s="25">
@@ -2253,84 +3144,84 @@
         <v>0</v>
       </c>
       <c r="I31" s="25">
+        <f t="shared" si="1"/>
+        <v>1130</v>
+      </c>
+      <c r="J31" s="25">
         <f t="shared" si="0"/>
-        <v>1130</v>
-      </c>
-      <c r="J31" s="25">
-        <f>D31*py</f>
         <v>0</v>
       </c>
       <c r="K31" s="25">
-        <f>E31*py</f>
+        <f t="shared" si="0"/>
         <v>194.81</v>
       </c>
       <c r="L31" s="25">
-        <f>F31*py</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M31" s="25">
-        <f>G31*py</f>
+        <f t="shared" si="0"/>
         <v>147.01499999999999</v>
       </c>
       <c r="N31" s="25">
-        <f>H31*py</f>
-        <v>0</v>
-      </c>
-      <c r="O31" s="36">
-        <f>I31*py</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="33">
+        <f t="shared" si="0"/>
         <v>341.82499999999999</v>
       </c>
     </row>
     <row r="32" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C32" s="37" t="s">
+      <c r="C32" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="30">
+      <c r="D32" s="28">
         <f>SUM(D27:D31)</f>
         <v>28101</v>
       </c>
-      <c r="E32" s="30">
-        <f t="shared" ref="E32:I32" si="1">SUM(E27:E31)</f>
+      <c r="E32" s="28">
+        <f t="shared" ref="E32:I32" si="2">SUM(E27:E31)</f>
         <v>1791</v>
       </c>
-      <c r="F32" s="30">
-        <f t="shared" si="1"/>
+      <c r="F32" s="28">
+        <f t="shared" si="2"/>
         <v>3778</v>
       </c>
-      <c r="G32" s="30">
-        <f t="shared" si="1"/>
+      <c r="G32" s="28">
+        <f t="shared" si="2"/>
         <v>486</v>
       </c>
-      <c r="H32" s="30">
-        <f t="shared" si="1"/>
+      <c r="H32" s="28">
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="I32" s="30">
-        <f t="shared" si="1"/>
+      <c r="I32" s="28">
+        <f t="shared" si="2"/>
         <v>34216</v>
       </c>
       <c r="J32" s="22">
-        <f>D32*py</f>
+        <f t="shared" si="0"/>
         <v>8500.5524999999998</v>
       </c>
       <c r="K32" s="22">
-        <f>E32*py</f>
+        <f t="shared" si="0"/>
         <v>541.77750000000003</v>
       </c>
       <c r="L32" s="22">
-        <f>F32*py</f>
+        <f t="shared" si="0"/>
         <v>1142.845</v>
       </c>
       <c r="M32" s="22">
-        <f>G32*py</f>
+        <f t="shared" si="0"/>
         <v>147.01499999999999</v>
       </c>
       <c r="N32" s="22">
-        <f>H32*py</f>
+        <f t="shared" si="0"/>
         <v>18.149999999999999</v>
       </c>
-      <c r="O32" s="38">
-        <f>I32*py</f>
+      <c r="O32" s="35">
+        <f t="shared" si="0"/>
         <v>10350.34</v>
       </c>
     </row>
@@ -2350,20 +3241,20 @@
       <c r="F34" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="G34" s="27" t="s">
+      <c r="G34" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="H34" s="29"/>
+      <c r="H34" s="41"/>
       <c r="I34" s="23"/>
-      <c r="J34" s="27" t="s">
+      <c r="J34" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="K34" s="29"/>
-      <c r="L34" s="27" t="s">
+      <c r="K34" s="41"/>
+      <c r="L34" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="M34" s="29"/>
-      <c r="N34" s="41" t="s">
+      <c r="M34" s="41"/>
+      <c r="N34" s="38" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2393,12 +3284,12 @@
       <c r="M35" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="N35" s="32" t="s">
+      <c r="N35" s="27" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="36" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C36" s="39" t="str">
+      <c r="C36" s="36" t="str">
         <f>C27</f>
         <v>지상3층</v>
       </c>
@@ -2411,11 +3302,11 @@
       <c r="F36" s="22">
         <v>1687</v>
       </c>
-      <c r="G36" s="40">
+      <c r="G36" s="37">
         <v>45170</v>
       </c>
-      <c r="H36" s="40">
-        <v>46235</v>
+      <c r="H36" s="37">
+        <v>46265</v>
       </c>
       <c r="I36" s="22">
         <v>242.928</v>
@@ -2434,13 +3325,13 @@
         <f>F36*L36/unit</f>
         <v>3.3740000000000001</v>
       </c>
-      <c r="N36" s="38">
+      <c r="N36" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C37" s="39" t="str">
-        <f t="shared" ref="C37:C41" si="2">C28</f>
+      <c r="C37" s="36" t="str">
+        <f t="shared" ref="C37:C41" si="3">C28</f>
         <v>지상2층</v>
       </c>
       <c r="D37" s="22" t="s">
@@ -2452,11 +3343,11 @@
       <c r="F37" s="22">
         <v>562</v>
       </c>
-      <c r="G37" s="40">
+      <c r="G37" s="37">
         <v>45170</v>
       </c>
-      <c r="H37" s="40">
-        <v>46235</v>
+      <c r="H37" s="37">
+        <v>46265</v>
       </c>
       <c r="I37" s="22">
         <v>40.463999999999999</v>
@@ -2475,13 +3366,13 @@
         <f>F37*L37/unit</f>
         <v>0</v>
       </c>
-      <c r="N37" s="38">
+      <c r="N37" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C38" s="39" t="str">
-        <f t="shared" si="2"/>
+      <c r="C38" s="36" t="str">
+        <f t="shared" si="3"/>
         <v>지상1층</v>
       </c>
       <c r="D38" s="22" t="s">
@@ -2493,11 +3384,11 @@
       <c r="F38" s="22">
         <v>2807</v>
       </c>
-      <c r="G38" s="40">
+      <c r="G38" s="37">
         <v>45170</v>
       </c>
-      <c r="H38" s="40">
-        <v>46235</v>
+      <c r="H38" s="37">
+        <v>46265</v>
       </c>
       <c r="I38" s="22">
         <v>404.20800000000003</v>
@@ -2516,13 +3407,13 @@
         <f>F38*L38/unit</f>
         <v>5.6139999999999999</v>
       </c>
-      <c r="N38" s="38">
+      <c r="N38" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C39" s="39" t="str">
-        <f t="shared" si="2"/>
+      <c r="C39" s="36" t="str">
+        <f t="shared" si="3"/>
         <v>지하1층</v>
       </c>
       <c r="D39" s="22" t="s">
@@ -2534,11 +3425,11 @@
       <c r="F39" s="22">
         <v>599</v>
       </c>
-      <c r="G39" s="40">
+      <c r="G39" s="37">
         <v>44774</v>
       </c>
-      <c r="H39" s="40">
-        <v>45505</v>
+      <c r="H39" s="37">
+        <v>46265</v>
       </c>
       <c r="I39" s="22">
         <v>89.85</v>
@@ -2557,13 +3448,13 @@
         <f>F39*L39/unit</f>
         <v>1.198</v>
       </c>
-      <c r="N39" s="38">
+      <c r="N39" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C40" s="39" t="str">
-        <f t="shared" si="2"/>
+      <c r="C40" s="36" t="str">
+        <f t="shared" si="3"/>
         <v>지하2층</v>
       </c>
       <c r="D40" s="22" t="s">
@@ -2575,11 +3466,11 @@
       <c r="F40" s="22">
         <v>4695</v>
       </c>
-      <c r="G40" s="40">
+      <c r="G40" s="37">
         <v>44774</v>
       </c>
-      <c r="H40" s="40">
-        <v>45505</v>
+      <c r="H40" s="37">
+        <v>46265</v>
       </c>
       <c r="I40" s="22">
         <v>704.25</v>
@@ -2598,13 +3489,13 @@
         <f>F40*L40/unit</f>
         <v>9.39</v>
       </c>
-      <c r="N40" s="38">
+      <c r="N40" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C41" s="39" t="str">
-        <f t="shared" si="2"/>
+      <c r="C41" s="36" t="str">
+        <f t="shared" si="3"/>
         <v>합계</v>
       </c>
       <c r="D41" s="22"/>
@@ -2613,8 +3504,8 @@
         <f>SUM(F36:F40)</f>
         <v>10350</v>
       </c>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
       <c r="I41" s="22">
         <f>SUM(I36:I40)</f>
         <v>1481.7</v>
@@ -2629,7 +3520,7 @@
         <f>SUM(M36:M40)</f>
         <v>19.576000000000001</v>
       </c>
-      <c r="N41" s="38"/>
+      <c r="N41" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2757,16 +3648,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E29AA8C8-F9BA-4F8F-97A0-393898A3F264}">
-  <dimension ref="A2:AE7"/>
+  <dimension ref="A2:AE52"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.42578125" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="12.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="2"/>
+    <col min="11" max="11" width="14.28515625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:31" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -2779,7 +3676,7 @@
       <c r="AC2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="AD2" s="11" t="s">
+      <c r="AD2" s="48" t="s">
         <v>8</v>
       </c>
       <c r="AE2" s="2"/>
@@ -2852,6 +3749,1228 @@
         <v>12</v>
       </c>
     </row>
+    <row r="8" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+    </row>
+    <row r="9" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="J9" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="K9" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="L9" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="M9" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="N9" s="50" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="5">
+        <v>46000</v>
+      </c>
+      <c r="I10" s="75">
+        <f ca="1">E10/$E$33</f>
+        <v>0.92035450729009083</v>
+      </c>
+      <c r="J10" s="56"/>
+      <c r="K10" s="76"/>
+    </row>
+    <row r="11" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57">
+        <f>'A&amp;R'!H23*G11</f>
+        <v>15615.5388</v>
+      </c>
+      <c r="F11" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" s="62">
+        <v>2</v>
+      </c>
+      <c r="H11" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="I11" s="72"/>
+      <c r="J11" s="79">
+        <v>1</v>
+      </c>
+      <c r="K11" s="80">
+        <v>0</v>
+      </c>
+      <c r="L11" s="57">
+        <f>E11*K11*10%</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57">
+        <f>L11-M11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="58"/>
+      <c r="C12" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55">
+        <f>E10-E11</f>
+        <v>30384.461199999998</v>
+      </c>
+      <c r="F12" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" s="63">
+        <f>E12/E10</f>
+        <v>0.66053176521739121</v>
+      </c>
+      <c r="H12" s="55"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="81">
+        <v>1</v>
+      </c>
+      <c r="K12" s="82">
+        <v>1</v>
+      </c>
+      <c r="L12" s="55">
+        <f t="shared" ref="L12:L32" si="0">E12*K12*10%</f>
+        <v>3038.4461200000001</v>
+      </c>
+      <c r="M12" s="55">
+        <f>L12</f>
+        <v>3038.4461200000001</v>
+      </c>
+      <c r="N12" s="55">
+        <f t="shared" ref="N12:N32" si="1">L12-M12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="2">
+        <f>SUM(E14:E15)</f>
+        <v>920</v>
+      </c>
+      <c r="I13" s="75">
+        <f ca="1">E13/$E$33</f>
+        <v>1.8407090145801816E-2</v>
+      </c>
+      <c r="J13" s="83"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C14" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57">
+        <f>E10*G14</f>
+        <v>690</v>
+      </c>
+      <c r="F14" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="G14" s="64">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H14" s="57"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="79">
+        <v>1</v>
+      </c>
+      <c r="K14" s="80">
+        <v>1</v>
+      </c>
+      <c r="L14" s="57">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="M14" s="57">
+        <f>L14*$G$12</f>
+        <v>45.576691799999992</v>
+      </c>
+      <c r="N14" s="57">
+        <f t="shared" si="1"/>
+        <v>23.423308200000008</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C15" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53">
+        <f>SUM(E16:E22)</f>
+        <v>230</v>
+      </c>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="53">
+        <f t="shared" ref="M15:M31" si="2">L15*$G$12</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C16" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="53"/>
+      <c r="E16" s="65">
+        <v>40</v>
+      </c>
+      <c r="F16" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="85">
+        <v>1</v>
+      </c>
+      <c r="K16" s="86">
+        <v>1</v>
+      </c>
+      <c r="L16" s="53">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M16" s="53">
+        <f t="shared" si="2"/>
+        <v>2.6421270608695648</v>
+      </c>
+      <c r="N16" s="53">
+        <f t="shared" si="1"/>
+        <v>1.3578729391304352</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C17" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="53"/>
+      <c r="E17" s="65">
+        <v>50</v>
+      </c>
+      <c r="F17" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="85">
+        <v>1</v>
+      </c>
+      <c r="K17" s="86">
+        <v>1</v>
+      </c>
+      <c r="L17" s="53">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M17" s="53">
+        <f t="shared" si="2"/>
+        <v>3.3026588260869563</v>
+      </c>
+      <c r="N17" s="53">
+        <f t="shared" si="1"/>
+        <v>1.6973411739130437</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C18" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="53"/>
+      <c r="E18" s="65">
+        <v>30</v>
+      </c>
+      <c r="F18" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="85">
+        <v>1</v>
+      </c>
+      <c r="K18" s="86">
+        <v>1</v>
+      </c>
+      <c r="L18" s="53">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M18" s="53">
+        <f t="shared" si="2"/>
+        <v>1.9815952956521736</v>
+      </c>
+      <c r="N18" s="53">
+        <f t="shared" si="1"/>
+        <v>1.0184047043478264</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C19" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="53"/>
+      <c r="E19" s="65">
+        <v>40</v>
+      </c>
+      <c r="F19" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="85">
+        <v>1</v>
+      </c>
+      <c r="K19" s="86">
+        <v>1</v>
+      </c>
+      <c r="L19" s="53">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M19" s="53">
+        <f t="shared" si="2"/>
+        <v>2.6421270608695648</v>
+      </c>
+      <c r="N19" s="53">
+        <f t="shared" si="1"/>
+        <v>1.3578729391304352</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C20" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="53"/>
+      <c r="E20" s="65">
+        <v>30</v>
+      </c>
+      <c r="F20" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="85">
+        <v>1</v>
+      </c>
+      <c r="K20" s="86">
+        <v>1</v>
+      </c>
+      <c r="L20" s="53">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M20" s="53">
+        <f t="shared" si="2"/>
+        <v>1.9815952956521736</v>
+      </c>
+      <c r="N20" s="53">
+        <f t="shared" si="1"/>
+        <v>1.0184047043478264</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C21" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="53"/>
+      <c r="E21" s="65">
+        <v>10</v>
+      </c>
+      <c r="F21" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="85">
+        <v>1</v>
+      </c>
+      <c r="K21" s="86">
+        <v>1</v>
+      </c>
+      <c r="L21" s="53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M21" s="53">
+        <f t="shared" si="2"/>
+        <v>0.66053176521739121</v>
+      </c>
+      <c r="N21" s="53">
+        <f t="shared" si="1"/>
+        <v>0.33946823478260879</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="58"/>
+      <c r="C22" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="55"/>
+      <c r="E22" s="66">
+        <v>30</v>
+      </c>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="81">
+        <v>1</v>
+      </c>
+      <c r="K22" s="82">
+        <v>1</v>
+      </c>
+      <c r="L22" s="55">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M22" s="55">
+        <f t="shared" si="2"/>
+        <v>1.9815952956521736</v>
+      </c>
+      <c r="N22" s="55">
+        <f t="shared" si="1"/>
+        <v>1.0184047043478264</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="51"/>
+      <c r="E23" s="2">
+        <f ca="1">SUM(E24:E26)</f>
+        <v>804.99040292031941</v>
+      </c>
+      <c r="I23" s="75">
+        <f ca="1">E23/$E$33</f>
+        <v>1.6106011862021354E-2</v>
+      </c>
+      <c r="J23" s="83"/>
+      <c r="K23" s="84"/>
+      <c r="L23" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C24" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="57"/>
+      <c r="E24" s="67">
+        <v>30</v>
+      </c>
+      <c r="F24" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="79">
+        <v>1</v>
+      </c>
+      <c r="K24" s="80">
+        <v>0</v>
+      </c>
+      <c r="L24" s="57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C25" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="53"/>
+      <c r="E25" s="68">
+        <f ca="1">N50</f>
+        <v>264.99040720706921</v>
+      </c>
+      <c r="F25" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="85">
+        <v>1</v>
+      </c>
+      <c r="K25" s="86">
+        <v>0</v>
+      </c>
+      <c r="L25" s="53">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="53">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="53">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="58"/>
+      <c r="C26" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="55"/>
+      <c r="E26" s="94">
+        <f>J45</f>
+        <v>510</v>
+      </c>
+      <c r="F26" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="81">
+        <v>1</v>
+      </c>
+      <c r="K26" s="82">
+        <v>0</v>
+      </c>
+      <c r="L26" s="55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55">
+        <f ca="1">G27*H27</f>
+        <v>2195.3495568697708</v>
+      </c>
+      <c r="F27" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="G27" s="55">
+        <f ca="1">J33</f>
+        <v>47724.990402920317</v>
+      </c>
+      <c r="H27" s="69">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="I27" s="63">
+        <f ca="1">E27/$E$33</f>
+        <v>4.3923909994399934E-2</v>
+      </c>
+      <c r="J27" s="81">
+        <v>0</v>
+      </c>
+      <c r="K27" s="82">
+        <v>0</v>
+      </c>
+      <c r="L27" s="55">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="55">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="55">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="2">
+        <f>SUM(E29:E31)</f>
+        <v>29</v>
+      </c>
+      <c r="I28" s="75">
+        <f ca="1">E28/$E$33</f>
+        <v>5.802234937263616E-4</v>
+      </c>
+      <c r="J28" s="83"/>
+      <c r="K28" s="84"/>
+      <c r="L28" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C29" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57">
+        <f>G29*H29</f>
+        <v>20</v>
+      </c>
+      <c r="F29" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="G29" s="67">
+        <v>5000</v>
+      </c>
+      <c r="H29" s="64">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="I29" s="72"/>
+      <c r="J29" s="79">
+        <v>0</v>
+      </c>
+      <c r="K29" s="80">
+        <v>0</v>
+      </c>
+      <c r="L29" s="57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C30" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53">
+        <f>E29*H30</f>
+        <v>4</v>
+      </c>
+      <c r="F30" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="G30" s="53"/>
+      <c r="H30" s="71">
+        <v>0.2</v>
+      </c>
+      <c r="I30" s="74"/>
+      <c r="J30" s="85">
+        <v>0</v>
+      </c>
+      <c r="K30" s="86">
+        <v>0</v>
+      </c>
+      <c r="L30" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="58"/>
+      <c r="C31" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="55"/>
+      <c r="E31" s="66">
+        <v>5</v>
+      </c>
+      <c r="F31" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="81">
+        <v>0</v>
+      </c>
+      <c r="K31" s="82">
+        <v>1</v>
+      </c>
+      <c r="L31" s="55">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="M31" s="55">
+        <f t="shared" si="2"/>
+        <v>0.3302658826086956</v>
+      </c>
+      <c r="N31" s="55">
+        <f t="shared" si="1"/>
+        <v>0.1697341173913044</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E32" s="2">
+        <f ca="1">N33</f>
+        <v>31.40081171739131</v>
+      </c>
+      <c r="I32" s="75">
+        <f ca="1">E32/$E$33</f>
+        <v>6.2825823036236062E-4</v>
+      </c>
+      <c r="J32" s="77">
+        <v>0</v>
+      </c>
+      <c r="K32" s="78"/>
+      <c r="L32" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="88"/>
+      <c r="D33" s="88"/>
+      <c r="E33" s="88">
+        <f ca="1">SUM(E10,E13,E23,E27,E28,E32)</f>
+        <v>49980.740771507481</v>
+      </c>
+      <c r="F33" s="88"/>
+      <c r="G33" s="88"/>
+      <c r="H33" s="88"/>
+      <c r="I33" s="89">
+        <f ca="1">E33/$E$33</f>
+        <v>1</v>
+      </c>
+      <c r="J33" s="88">
+        <f ca="1">SUMPRODUCT(E10:E32,J10:J32)</f>
+        <v>47724.990407207071</v>
+      </c>
+      <c r="K33" s="88"/>
+      <c r="L33" s="88">
+        <f ca="1">SUM(L11:L32)</f>
+        <v>3130.9461200000001</v>
+      </c>
+      <c r="M33" s="88">
+        <f ca="1">SUM(M11:M32)</f>
+        <v>3099.5453082826089</v>
+      </c>
+      <c r="N33" s="88">
+        <f ca="1">SUM(N11:N32)</f>
+        <v>31.40081171739131</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+    </row>
+    <row r="36" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="93" t="s">
+        <v>59</v>
+      </c>
+      <c r="F37" s="93" t="s">
+        <v>134</v>
+      </c>
+      <c r="G37" s="93"/>
+      <c r="H37" s="93"/>
+      <c r="I37" s="93"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="49"/>
+    </row>
+    <row r="38" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E38" s="2">
+        <f ca="1">E33</f>
+        <v>49980.740771507481</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" s="2">
+        <f ca="1">M33</f>
+        <v>3099.5453082826089</v>
+      </c>
+      <c r="F39" s="16">
+        <v>45505</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="87" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="88"/>
+      <c r="D40" s="88"/>
+      <c r="E40" s="88">
+        <f ca="1">SUM(E38:E39)</f>
+        <v>53080.286079790087</v>
+      </c>
+      <c r="F40" s="88"/>
+      <c r="G40" s="88"/>
+      <c r="H40" s="88"/>
+      <c r="I40" s="88"/>
+      <c r="J40" s="88"/>
+      <c r="K40" s="88"/>
+      <c r="L40" s="88"/>
+      <c r="M40" s="88"/>
+      <c r="N40" s="88"/>
+    </row>
+    <row r="41" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="93" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42" s="93" t="s">
+        <v>135</v>
+      </c>
+      <c r="G42" s="93" t="s">
+        <v>136</v>
+      </c>
+      <c r="H42" s="93" t="s">
+        <v>146</v>
+      </c>
+      <c r="I42" s="93" t="s">
+        <v>147</v>
+      </c>
+      <c r="J42" s="49"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="49"/>
+      <c r="M42" s="49"/>
+      <c r="N42" s="49"/>
+    </row>
+    <row r="43" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C43" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" s="57"/>
+      <c r="E43" s="67">
+        <v>5000</v>
+      </c>
+      <c r="F43" s="90">
+        <f>acq</f>
+        <v>45352</v>
+      </c>
+      <c r="G43" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="H43" s="92">
+        <f>1-H44</f>
+        <v>0.7</v>
+      </c>
+      <c r="I43" s="64">
+        <v>0</v>
+      </c>
+      <c r="J43" s="57">
+        <f>E43*I43</f>
+        <v>0</v>
+      </c>
+      <c r="K43" s="57"/>
+      <c r="L43" s="57"/>
+      <c r="M43" s="57"/>
+      <c r="N43" s="57"/>
+    </row>
+    <row r="44" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C44" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="D44" s="55"/>
+      <c r="E44" s="66">
+        <v>17000</v>
+      </c>
+      <c r="F44" s="91">
+        <f>acq</f>
+        <v>45352</v>
+      </c>
+      <c r="G44" s="69">
+        <v>0.06</v>
+      </c>
+      <c r="H44" s="69">
+        <v>0.3</v>
+      </c>
+      <c r="I44" s="69">
+        <v>0.03</v>
+      </c>
+      <c r="J44" s="95">
+        <f>E44*I44</f>
+        <v>510</v>
+      </c>
+      <c r="K44" s="55"/>
+      <c r="L44" s="55"/>
+      <c r="M44" s="55"/>
+      <c r="N44" s="55"/>
+    </row>
+    <row r="45" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C45" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55">
+        <f>SUM(E43:E44)</f>
+        <v>22000</v>
+      </c>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="95">
+        <f>SUM(J43:J44)</f>
+        <v>510</v>
+      </c>
+      <c r="K45" s="55"/>
+      <c r="L45" s="55"/>
+      <c r="M45" s="55"/>
+      <c r="N45" s="55"/>
+    </row>
+    <row r="46" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="93" t="s">
+        <v>59</v>
+      </c>
+      <c r="F46" s="93" t="s">
+        <v>137</v>
+      </c>
+      <c r="G46" s="93" t="s">
+        <v>138</v>
+      </c>
+      <c r="H46" s="93" t="s">
+        <v>139</v>
+      </c>
+      <c r="I46" s="93" t="s">
+        <v>140</v>
+      </c>
+      <c r="J46" s="93" t="s">
+        <v>141</v>
+      </c>
+      <c r="K46" s="93" t="s">
+        <v>148</v>
+      </c>
+      <c r="L46" s="93" t="s">
+        <v>142</v>
+      </c>
+      <c r="M46" s="93" t="s">
+        <v>143</v>
+      </c>
+      <c r="N46" s="49"/>
+    </row>
+    <row r="47" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C47" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57">
+        <f ca="1">E40-E45-SUM(E48:E49)</f>
+        <v>26499.040771507476</v>
+      </c>
+      <c r="F47" s="90">
+        <f>acq</f>
+        <v>45352</v>
+      </c>
+      <c r="G47" s="90">
+        <f>exit</f>
+        <v>47208</v>
+      </c>
+      <c r="H47" s="97">
+        <f>DATEDIF(F47,G47,"m")</f>
+        <v>60</v>
+      </c>
+      <c r="I47" s="64">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="J47" s="64">
+        <v>0.01</v>
+      </c>
+      <c r="K47" s="99">
+        <v>3</v>
+      </c>
+      <c r="L47" s="100">
+        <f>I47+(J47/(H47/12))</f>
+        <v>0.03</v>
+      </c>
+      <c r="M47" s="101">
+        <f ca="1">(E47+E49)/E10</f>
+        <v>0.60827697329364083</v>
+      </c>
+      <c r="N47" s="106">
+        <f ca="1">E47*J47</f>
+        <v>264.99040771507475</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C48" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="D48" s="53"/>
+      <c r="E48" s="53">
+        <f ca="1">E39</f>
+        <v>3099.5453082826089</v>
+      </c>
+      <c r="F48" s="96">
+        <f>acq</f>
+        <v>45352</v>
+      </c>
+      <c r="G48" s="96">
+        <f>F39</f>
+        <v>45505</v>
+      </c>
+      <c r="H48" s="102">
+        <f>DATEDIF(F48,G48,"m")</f>
+        <v>5</v>
+      </c>
+      <c r="I48" s="70">
+        <v>0.04</v>
+      </c>
+      <c r="J48" s="70">
+        <v>0</v>
+      </c>
+      <c r="K48" s="103">
+        <v>1</v>
+      </c>
+      <c r="L48" s="104">
+        <f>I48+(J48/(H48/12))</f>
+        <v>0.04</v>
+      </c>
+      <c r="M48" s="98"/>
+      <c r="N48" s="107">
+        <f ca="1">E48*J48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C49" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55">
+        <f>'A&amp;R'!I41</f>
+        <v>1481.7</v>
+      </c>
+      <c r="F49" s="91">
+        <f>acq</f>
+        <v>45352</v>
+      </c>
+      <c r="G49" s="91">
+        <f>exit</f>
+        <v>47208</v>
+      </c>
+      <c r="H49" s="105" t="s">
+        <v>145</v>
+      </c>
+      <c r="I49" s="105" t="s">
+        <v>145</v>
+      </c>
+      <c r="J49" s="105" t="s">
+        <v>145</v>
+      </c>
+      <c r="K49" s="105" t="s">
+        <v>145</v>
+      </c>
+      <c r="L49" s="55"/>
+      <c r="M49" s="55"/>
+      <c r="N49" s="55"/>
+    </row>
+    <row r="50" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C50" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="D50" s="55"/>
+      <c r="E50" s="55">
+        <f ca="1">SUM(E47:E49)</f>
+        <v>31080.286079790087</v>
+      </c>
+      <c r="F50" s="55"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="55"/>
+      <c r="K50" s="55"/>
+      <c r="L50" s="55"/>
+      <c r="M50" s="55"/>
+      <c r="N50" s="106">
+        <f ca="1">SUM(N47:N49)</f>
+        <v>264.99040771507475</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B51" s="87" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="88"/>
+      <c r="D51" s="88"/>
+      <c r="E51" s="88">
+        <f ca="1">SUM(E45,E50)</f>
+        <v>53080.286079790087</v>
+      </c>
+      <c r="F51" s="88"/>
+      <c r="G51" s="88"/>
+      <c r="H51" s="88"/>
+      <c r="I51" s="88"/>
+      <c r="J51" s="88"/>
+      <c r="K51" s="88"/>
+      <c r="L51" s="88"/>
+      <c r="M51" s="88"/>
+      <c r="N51" s="88"/>
+    </row>
+    <row r="52" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B52" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2863,6 +4982,4842 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC3D4C2-E623-4C7A-B921-89CF2DEE6A04}">
+  <dimension ref="A2:BZ39"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W38" sqref="W38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="2.42578125" style="2" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="11.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="2.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:78" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE2" s="2"/>
+    </row>
+    <row r="3" spans="1:78" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AB3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD3" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:78" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AB4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD4" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:78" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+    </row>
+    <row r="6" spans="1:78" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="14">
+        <v>45545</v>
+      </c>
+    </row>
+    <row r="7" spans="1:78" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:78" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="H8" s="108" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="109">
+        <v>1</v>
+      </c>
+      <c r="J8" s="109">
+        <v>2</v>
+      </c>
+      <c r="K8" s="109">
+        <v>3</v>
+      </c>
+      <c r="L8" s="109">
+        <v>4</v>
+      </c>
+      <c r="M8" s="109">
+        <v>5</v>
+      </c>
+      <c r="N8" s="109">
+        <v>6</v>
+      </c>
+      <c r="O8" s="109">
+        <v>7</v>
+      </c>
+      <c r="P8" s="109">
+        <v>8</v>
+      </c>
+      <c r="Q8" s="109">
+        <v>9</v>
+      </c>
+      <c r="R8" s="109">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:78" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="H9" s="108" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="110">
+        <f>start</f>
+        <v>45412</v>
+      </c>
+      <c r="J9" s="110">
+        <f>EOMONTH(I10,1)</f>
+        <v>45596</v>
+      </c>
+      <c r="K9" s="110">
+        <f t="shared" ref="K9:R9" si="0">EOMONTH(J10,1)</f>
+        <v>45777</v>
+      </c>
+      <c r="L9" s="110">
+        <f t="shared" si="0"/>
+        <v>45961</v>
+      </c>
+      <c r="M9" s="110">
+        <f t="shared" si="0"/>
+        <v>46142</v>
+      </c>
+      <c r="N9" s="110">
+        <f t="shared" si="0"/>
+        <v>46326</v>
+      </c>
+      <c r="O9" s="110">
+        <f t="shared" si="0"/>
+        <v>46507</v>
+      </c>
+      <c r="P9" s="110">
+        <f t="shared" si="0"/>
+        <v>46691</v>
+      </c>
+      <c r="Q9" s="110">
+        <f t="shared" si="0"/>
+        <v>46873</v>
+      </c>
+      <c r="R9" s="110">
+        <f t="shared" si="0"/>
+        <v>47057</v>
+      </c>
+    </row>
+    <row r="10" spans="1:78" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="H10" s="108" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="110">
+        <f>EOMONTH(I9,period-1)</f>
+        <v>45565</v>
+      </c>
+      <c r="J10" s="110">
+        <f>EOMONTH(J9,period-1)</f>
+        <v>45747</v>
+      </c>
+      <c r="K10" s="110">
+        <f>EOMONTH(K9,period-1)</f>
+        <v>45930</v>
+      </c>
+      <c r="L10" s="110">
+        <f>EOMONTH(L9,period-1)</f>
+        <v>46112</v>
+      </c>
+      <c r="M10" s="110">
+        <f>EOMONTH(M9,period-1)</f>
+        <v>46295</v>
+      </c>
+      <c r="N10" s="110">
+        <f>EOMONTH(N9,period-1)</f>
+        <v>46477</v>
+      </c>
+      <c r="O10" s="110">
+        <f>EOMONTH(O9,period-1)</f>
+        <v>46660</v>
+      </c>
+      <c r="P10" s="110">
+        <f>EOMONTH(P9,period-1)</f>
+        <v>46843</v>
+      </c>
+      <c r="Q10" s="110">
+        <f>EOMONTH(Q9,period-1)</f>
+        <v>47026</v>
+      </c>
+      <c r="R10" s="110">
+        <f>EOMONTH(R9,period-1)</f>
+        <v>47208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:78" s="111" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="F11" s="111" t="s">
+        <v>152</v>
+      </c>
+      <c r="H11" s="111">
+        <f>(H14&gt;=start)*(H14&lt;=exit)*1</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="111">
+        <f>(I14&gt;=start)*(I14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="J11" s="111">
+        <f>(J14&gt;=start)*(J14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="K11" s="111">
+        <f>(K14&gt;=start)*(K14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="L11" s="111">
+        <f>(L14&gt;=start)*(L14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="M11" s="111">
+        <f>(M14&gt;=start)*(M14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="N11" s="111">
+        <f>(N14&gt;=start)*(N14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="O11" s="111">
+        <f>(O14&gt;=start)*(O14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="P11" s="111">
+        <f>(P14&gt;=start)*(P14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="Q11" s="111">
+        <f>(Q14&gt;=start)*(Q14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="R11" s="111">
+        <f>(R14&gt;=start)*(R14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="S11" s="111">
+        <f>(S14&gt;=start)*(S14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="T11" s="111">
+        <f>(T14&gt;=start)*(T14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="U11" s="111">
+        <f>(U14&gt;=start)*(U14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="V11" s="111">
+        <f>(V14&gt;=start)*(V14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="W11" s="111">
+        <f>(W14&gt;=start)*(W14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="X11" s="111">
+        <f>(X14&gt;=start)*(X14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="Y11" s="111">
+        <f>(Y14&gt;=start)*(Y14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="Z11" s="111">
+        <f>(Z14&gt;=start)*(Z14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="AA11" s="111">
+        <f>(AA14&gt;=start)*(AA14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="AB11" s="111">
+        <f>(AB14&gt;=start)*(AB14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="AC11" s="111">
+        <f>(AC14&gt;=start)*(AC14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="AD11" s="111">
+        <f>(AD14&gt;=start)*(AD14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="AE11" s="111">
+        <f>(AE14&gt;=start)*(AE14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="AF11" s="111">
+        <f>(AF14&gt;=start)*(AF14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="AG11" s="111">
+        <f>(AG14&gt;=start)*(AG14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="AH11" s="111">
+        <f>(AH14&gt;=start)*(AH14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="AI11" s="111">
+        <f>(AI14&gt;=start)*(AI14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="111">
+        <f>(AJ14&gt;=start)*(AJ14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="AK11" s="111">
+        <f>(AK14&gt;=start)*(AK14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="AL11" s="111">
+        <f>(AL14&gt;=start)*(AL14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="AM11" s="111">
+        <f>(AM14&gt;=start)*(AM14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="AN11" s="111">
+        <f>(AN14&gt;=start)*(AN14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="AO11" s="111">
+        <f>(AO14&gt;=start)*(AO14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="AP11" s="111">
+        <f>(AP14&gt;=start)*(AP14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="AQ11" s="111">
+        <f>(AQ14&gt;=start)*(AQ14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="AR11" s="111">
+        <f>(AR14&gt;=start)*(AR14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="AS11" s="111">
+        <f>(AS14&gt;=start)*(AS14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="AT11" s="111">
+        <f>(AT14&gt;=start)*(AT14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="AU11" s="111">
+        <f>(AU14&gt;=start)*(AU14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="AV11" s="111">
+        <f>(AV14&gt;=start)*(AV14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="AW11" s="111">
+        <f>(AW14&gt;=start)*(AW14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="AX11" s="111">
+        <f>(AX14&gt;=start)*(AX14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="AY11" s="111">
+        <f>(AY14&gt;=start)*(AY14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="AZ11" s="111">
+        <f>(AZ14&gt;=start)*(AZ14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="BA11" s="111">
+        <f>(BA14&gt;=start)*(BA14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="BB11" s="111">
+        <f>(BB14&gt;=start)*(BB14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="BC11" s="111">
+        <f>(BC14&gt;=start)*(BC14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="BD11" s="111">
+        <f>(BD14&gt;=start)*(BD14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="BE11" s="111">
+        <f>(BE14&gt;=start)*(BE14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="BF11" s="111">
+        <f>(BF14&gt;=start)*(BF14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="BG11" s="111">
+        <f>(BG14&gt;=start)*(BG14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="BH11" s="111">
+        <f>(BH14&gt;=start)*(BH14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="BI11" s="111">
+        <f>(BI14&gt;=start)*(BI14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="BJ11" s="111">
+        <f>(BJ14&gt;=start)*(BJ14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="BK11" s="111">
+        <f>(BK14&gt;=start)*(BK14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="BL11" s="111">
+        <f>(BL14&gt;=start)*(BL14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="BM11" s="111">
+        <f>(BM14&gt;=start)*(BM14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="BN11" s="111">
+        <f>(BN14&gt;=start)*(BN14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="BO11" s="111">
+        <f>(BO14&gt;=start)*(BO14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="BP11" s="111">
+        <f>(BP14&gt;=start)*(BP14&lt;=exit)*1</f>
+        <v>1</v>
+      </c>
+      <c r="BQ11" s="111">
+        <f>(BQ14&gt;=start)*(BQ14&lt;=exit)*1</f>
+        <v>0</v>
+      </c>
+      <c r="BR11" s="111">
+        <f>(BR14&gt;=start)*(BR14&lt;=exit)*1</f>
+        <v>0</v>
+      </c>
+      <c r="BS11" s="111">
+        <f>(BS14&gt;=start)*(BS14&lt;=exit)*1</f>
+        <v>0</v>
+      </c>
+      <c r="BT11" s="111">
+        <f>(BT14&gt;=start)*(BT14&lt;=exit)*1</f>
+        <v>0</v>
+      </c>
+      <c r="BU11" s="111">
+        <f>(BU14&gt;=start)*(BU14&lt;=exit)*1</f>
+        <v>0</v>
+      </c>
+      <c r="BV11" s="111">
+        <f>(BV14&gt;=start)*(BV14&lt;=exit)*1</f>
+        <v>0</v>
+      </c>
+      <c r="BW11" s="111">
+        <f>(BW14&gt;=start)*(BW14&lt;=exit)*1</f>
+        <v>0</v>
+      </c>
+      <c r="BX11" s="111">
+        <f>(BX14&gt;=start)*(BX14&lt;=exit)*1</f>
+        <v>0</v>
+      </c>
+      <c r="BY11" s="111">
+        <f>(BY14&gt;=start)*(BY14&lt;=exit)*1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:78" s="111" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="F12" s="111" t="s">
+        <v>153</v>
+      </c>
+      <c r="H12" s="111">
+        <f>SUM($H$11:H11)*H11</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="111">
+        <f>SUM($H$11:I11)*I11</f>
+        <v>1</v>
+      </c>
+      <c r="J12" s="111">
+        <f>SUM($H$11:J11)*J11</f>
+        <v>2</v>
+      </c>
+      <c r="K12" s="111">
+        <f>SUM($H$11:K11)*K11</f>
+        <v>3</v>
+      </c>
+      <c r="L12" s="111">
+        <f>SUM($H$11:L11)*L11</f>
+        <v>4</v>
+      </c>
+      <c r="M12" s="111">
+        <f>SUM($H$11:M11)*M11</f>
+        <v>5</v>
+      </c>
+      <c r="N12" s="111">
+        <f>SUM($H$11:N11)*N11</f>
+        <v>6</v>
+      </c>
+      <c r="O12" s="111">
+        <f>SUM($H$11:O11)*O11</f>
+        <v>7</v>
+      </c>
+      <c r="P12" s="111">
+        <f>SUM($H$11:P11)*P11</f>
+        <v>8</v>
+      </c>
+      <c r="Q12" s="111">
+        <f>SUM($H$11:Q11)*Q11</f>
+        <v>9</v>
+      </c>
+      <c r="R12" s="111">
+        <f>SUM($H$11:R11)*R11</f>
+        <v>10</v>
+      </c>
+      <c r="S12" s="111">
+        <f>SUM($H$11:S11)*S11</f>
+        <v>11</v>
+      </c>
+      <c r="T12" s="111">
+        <f>SUM($H$11:T11)*T11</f>
+        <v>12</v>
+      </c>
+      <c r="U12" s="111">
+        <f>SUM($H$11:U11)*U11</f>
+        <v>13</v>
+      </c>
+      <c r="V12" s="111">
+        <f>SUM($H$11:V11)*V11</f>
+        <v>14</v>
+      </c>
+      <c r="W12" s="111">
+        <f>SUM($H$11:W11)*W11</f>
+        <v>15</v>
+      </c>
+      <c r="X12" s="111">
+        <f>SUM($H$11:X11)*X11</f>
+        <v>16</v>
+      </c>
+      <c r="Y12" s="111">
+        <f>SUM($H$11:Y11)*Y11</f>
+        <v>17</v>
+      </c>
+      <c r="Z12" s="111">
+        <f>SUM($H$11:Z11)*Z11</f>
+        <v>18</v>
+      </c>
+      <c r="AA12" s="111">
+        <f>SUM($H$11:AA11)*AA11</f>
+        <v>19</v>
+      </c>
+      <c r="AB12" s="111">
+        <f>SUM($H$11:AB11)*AB11</f>
+        <v>20</v>
+      </c>
+      <c r="AC12" s="111">
+        <f>SUM($H$11:AC11)*AC11</f>
+        <v>21</v>
+      </c>
+      <c r="AD12" s="111">
+        <f>SUM($H$11:AD11)*AD11</f>
+        <v>22</v>
+      </c>
+      <c r="AE12" s="111">
+        <f>SUM($H$11:AE11)*AE11</f>
+        <v>23</v>
+      </c>
+      <c r="AF12" s="111">
+        <f>SUM($H$11:AF11)*AF11</f>
+        <v>24</v>
+      </c>
+      <c r="AG12" s="111">
+        <f>SUM($H$11:AG11)*AG11</f>
+        <v>25</v>
+      </c>
+      <c r="AH12" s="111">
+        <f>SUM($H$11:AH11)*AH11</f>
+        <v>26</v>
+      </c>
+      <c r="AI12" s="111">
+        <f>SUM($H$11:AI11)*AI11</f>
+        <v>27</v>
+      </c>
+      <c r="AJ12" s="111">
+        <f>SUM($H$11:AJ11)*AJ11</f>
+        <v>28</v>
+      </c>
+      <c r="AK12" s="111">
+        <f>SUM($H$11:AK11)*AK11</f>
+        <v>29</v>
+      </c>
+      <c r="AL12" s="111">
+        <f>SUM($H$11:AL11)*AL11</f>
+        <v>30</v>
+      </c>
+      <c r="AM12" s="111">
+        <f>SUM($H$11:AM11)*AM11</f>
+        <v>31</v>
+      </c>
+      <c r="AN12" s="111">
+        <f>SUM($H$11:AN11)*AN11</f>
+        <v>32</v>
+      </c>
+      <c r="AO12" s="111">
+        <f>SUM($H$11:AO11)*AO11</f>
+        <v>33</v>
+      </c>
+      <c r="AP12" s="111">
+        <f>SUM($H$11:AP11)*AP11</f>
+        <v>34</v>
+      </c>
+      <c r="AQ12" s="111">
+        <f>SUM($H$11:AQ11)*AQ11</f>
+        <v>35</v>
+      </c>
+      <c r="AR12" s="111">
+        <f>SUM($H$11:AR11)*AR11</f>
+        <v>36</v>
+      </c>
+      <c r="AS12" s="111">
+        <f>SUM($H$11:AS11)*AS11</f>
+        <v>37</v>
+      </c>
+      <c r="AT12" s="111">
+        <f>SUM($H$11:AT11)*AT11</f>
+        <v>38</v>
+      </c>
+      <c r="AU12" s="111">
+        <f>SUM($H$11:AU11)*AU11</f>
+        <v>39</v>
+      </c>
+      <c r="AV12" s="111">
+        <f>SUM($H$11:AV11)*AV11</f>
+        <v>40</v>
+      </c>
+      <c r="AW12" s="111">
+        <f>SUM($H$11:AW11)*AW11</f>
+        <v>41</v>
+      </c>
+      <c r="AX12" s="111">
+        <f>SUM($H$11:AX11)*AX11</f>
+        <v>42</v>
+      </c>
+      <c r="AY12" s="111">
+        <f>SUM($H$11:AY11)*AY11</f>
+        <v>43</v>
+      </c>
+      <c r="AZ12" s="111">
+        <f>SUM($H$11:AZ11)*AZ11</f>
+        <v>44</v>
+      </c>
+      <c r="BA12" s="111">
+        <f>SUM($H$11:BA11)*BA11</f>
+        <v>45</v>
+      </c>
+      <c r="BB12" s="111">
+        <f>SUM($H$11:BB11)*BB11</f>
+        <v>46</v>
+      </c>
+      <c r="BC12" s="111">
+        <f>SUM($H$11:BC11)*BC11</f>
+        <v>47</v>
+      </c>
+      <c r="BD12" s="111">
+        <f>SUM($H$11:BD11)*BD11</f>
+        <v>48</v>
+      </c>
+      <c r="BE12" s="111">
+        <f>SUM($H$11:BE11)*BE11</f>
+        <v>49</v>
+      </c>
+      <c r="BF12" s="111">
+        <f>SUM($H$11:BF11)*BF11</f>
+        <v>50</v>
+      </c>
+      <c r="BG12" s="111">
+        <f>SUM($H$11:BG11)*BG11</f>
+        <v>51</v>
+      </c>
+      <c r="BH12" s="111">
+        <f>SUM($H$11:BH11)*BH11</f>
+        <v>52</v>
+      </c>
+      <c r="BI12" s="111">
+        <f>SUM($H$11:BI11)*BI11</f>
+        <v>53</v>
+      </c>
+      <c r="BJ12" s="111">
+        <f>SUM($H$11:BJ11)*BJ11</f>
+        <v>54</v>
+      </c>
+      <c r="BK12" s="111">
+        <f>SUM($H$11:BK11)*BK11</f>
+        <v>55</v>
+      </c>
+      <c r="BL12" s="111">
+        <f>SUM($H$11:BL11)*BL11</f>
+        <v>56</v>
+      </c>
+      <c r="BM12" s="111">
+        <f>SUM($H$11:BM11)*BM11</f>
+        <v>57</v>
+      </c>
+      <c r="BN12" s="111">
+        <f>SUM($H$11:BN11)*BN11</f>
+        <v>58</v>
+      </c>
+      <c r="BO12" s="111">
+        <f>SUM($H$11:BO11)*BO11</f>
+        <v>59</v>
+      </c>
+      <c r="BP12" s="111">
+        <f>SUM($H$11:BP11)*BP11</f>
+        <v>60</v>
+      </c>
+      <c r="BQ12" s="111">
+        <f>SUM($H$11:BQ11)*BQ11</f>
+        <v>0</v>
+      </c>
+      <c r="BR12" s="111">
+        <f>SUM($H$11:BR11)*BR11</f>
+        <v>0</v>
+      </c>
+      <c r="BS12" s="111">
+        <f>SUM($H$11:BS11)*BS11</f>
+        <v>0</v>
+      </c>
+      <c r="BT12" s="111">
+        <f>SUM($H$11:BT11)*BT11</f>
+        <v>0</v>
+      </c>
+      <c r="BU12" s="111">
+        <f>SUM($H$11:BU11)*BU11</f>
+        <v>0</v>
+      </c>
+      <c r="BV12" s="111">
+        <f>SUM($H$11:BV11)*BV11</f>
+        <v>0</v>
+      </c>
+      <c r="BW12" s="111">
+        <f>SUM($H$11:BW11)*BW11</f>
+        <v>0</v>
+      </c>
+      <c r="BX12" s="111">
+        <f>SUM($H$11:BX11)*BX11</f>
+        <v>0</v>
+      </c>
+      <c r="BY12" s="111">
+        <f>SUM($H$11:BY11)*BY11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:78" s="111" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="F13" s="111" t="s">
+        <v>154</v>
+      </c>
+      <c r="H13" s="111">
+        <f>(MOD(H12,12)=1)*1</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="111">
+        <f t="shared" ref="I13:BT13" si="1">(MOD(I12,12)=1)*1</f>
+        <v>1</v>
+      </c>
+      <c r="J13" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="111">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V13" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="111">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AH13" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI13" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK13" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL13" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AM13" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AN13" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO13" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AP13" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AR13" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AS13" s="111">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AT13" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU13" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AV13" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AW13" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AX13" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AY13" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BA13" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BB13" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BC13" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BD13" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BE13" s="111">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="BF13" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BG13" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BH13" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BI13" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BJ13" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BK13" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BL13" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BM13" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BN13" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BO13" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BP13" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BQ13" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BR13" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BS13" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BT13" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BU13" s="111">
+        <f t="shared" ref="BU13:BY13" si="2">(MOD(BU12,12)=1)*1</f>
+        <v>0</v>
+      </c>
+      <c r="BV13" s="111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BW13" s="111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BX13" s="111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BY13" s="111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:78" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="112"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" s="112"/>
+      <c r="H14" s="113">
+        <f>acq</f>
+        <v>45352</v>
+      </c>
+      <c r="I14" s="113">
+        <f>EOMONTH(H14,1)</f>
+        <v>45412</v>
+      </c>
+      <c r="J14" s="113">
+        <f t="shared" ref="J14:BU14" si="3">EOMONTH(I14,1)</f>
+        <v>45443</v>
+      </c>
+      <c r="K14" s="113">
+        <f t="shared" si="3"/>
+        <v>45473</v>
+      </c>
+      <c r="L14" s="113">
+        <f t="shared" si="3"/>
+        <v>45504</v>
+      </c>
+      <c r="M14" s="113">
+        <f t="shared" si="3"/>
+        <v>45535</v>
+      </c>
+      <c r="N14" s="113">
+        <f t="shared" si="3"/>
+        <v>45565</v>
+      </c>
+      <c r="O14" s="113">
+        <f t="shared" si="3"/>
+        <v>45596</v>
+      </c>
+      <c r="P14" s="113">
+        <f t="shared" si="3"/>
+        <v>45626</v>
+      </c>
+      <c r="Q14" s="113">
+        <f t="shared" si="3"/>
+        <v>45657</v>
+      </c>
+      <c r="R14" s="113">
+        <f t="shared" si="3"/>
+        <v>45688</v>
+      </c>
+      <c r="S14" s="113">
+        <f t="shared" si="3"/>
+        <v>45716</v>
+      </c>
+      <c r="T14" s="113">
+        <f t="shared" si="3"/>
+        <v>45747</v>
+      </c>
+      <c r="U14" s="113">
+        <f t="shared" si="3"/>
+        <v>45777</v>
+      </c>
+      <c r="V14" s="113">
+        <f t="shared" si="3"/>
+        <v>45808</v>
+      </c>
+      <c r="W14" s="113">
+        <f t="shared" si="3"/>
+        <v>45838</v>
+      </c>
+      <c r="X14" s="113">
+        <f t="shared" si="3"/>
+        <v>45869</v>
+      </c>
+      <c r="Y14" s="113">
+        <f t="shared" si="3"/>
+        <v>45900</v>
+      </c>
+      <c r="Z14" s="113">
+        <f t="shared" si="3"/>
+        <v>45930</v>
+      </c>
+      <c r="AA14" s="113">
+        <f t="shared" si="3"/>
+        <v>45961</v>
+      </c>
+      <c r="AB14" s="113">
+        <f t="shared" si="3"/>
+        <v>45991</v>
+      </c>
+      <c r="AC14" s="113">
+        <f t="shared" si="3"/>
+        <v>46022</v>
+      </c>
+      <c r="AD14" s="113">
+        <f t="shared" si="3"/>
+        <v>46053</v>
+      </c>
+      <c r="AE14" s="113">
+        <f t="shared" si="3"/>
+        <v>46081</v>
+      </c>
+      <c r="AF14" s="113">
+        <f t="shared" si="3"/>
+        <v>46112</v>
+      </c>
+      <c r="AG14" s="113">
+        <f t="shared" si="3"/>
+        <v>46142</v>
+      </c>
+      <c r="AH14" s="113">
+        <f t="shared" si="3"/>
+        <v>46173</v>
+      </c>
+      <c r="AI14" s="113">
+        <f t="shared" si="3"/>
+        <v>46203</v>
+      </c>
+      <c r="AJ14" s="113">
+        <f t="shared" si="3"/>
+        <v>46234</v>
+      </c>
+      <c r="AK14" s="113">
+        <f t="shared" si="3"/>
+        <v>46265</v>
+      </c>
+      <c r="AL14" s="113">
+        <f t="shared" si="3"/>
+        <v>46295</v>
+      </c>
+      <c r="AM14" s="113">
+        <f t="shared" si="3"/>
+        <v>46326</v>
+      </c>
+      <c r="AN14" s="113">
+        <f t="shared" si="3"/>
+        <v>46356</v>
+      </c>
+      <c r="AO14" s="113">
+        <f t="shared" si="3"/>
+        <v>46387</v>
+      </c>
+      <c r="AP14" s="113">
+        <f t="shared" si="3"/>
+        <v>46418</v>
+      </c>
+      <c r="AQ14" s="113">
+        <f t="shared" si="3"/>
+        <v>46446</v>
+      </c>
+      <c r="AR14" s="113">
+        <f t="shared" si="3"/>
+        <v>46477</v>
+      </c>
+      <c r="AS14" s="113">
+        <f t="shared" si="3"/>
+        <v>46507</v>
+      </c>
+      <c r="AT14" s="113">
+        <f t="shared" si="3"/>
+        <v>46538</v>
+      </c>
+      <c r="AU14" s="113">
+        <f t="shared" si="3"/>
+        <v>46568</v>
+      </c>
+      <c r="AV14" s="113">
+        <f t="shared" si="3"/>
+        <v>46599</v>
+      </c>
+      <c r="AW14" s="113">
+        <f t="shared" si="3"/>
+        <v>46630</v>
+      </c>
+      <c r="AX14" s="113">
+        <f t="shared" si="3"/>
+        <v>46660</v>
+      </c>
+      <c r="AY14" s="113">
+        <f t="shared" si="3"/>
+        <v>46691</v>
+      </c>
+      <c r="AZ14" s="113">
+        <f t="shared" si="3"/>
+        <v>46721</v>
+      </c>
+      <c r="BA14" s="113">
+        <f t="shared" si="3"/>
+        <v>46752</v>
+      </c>
+      <c r="BB14" s="113">
+        <f t="shared" si="3"/>
+        <v>46783</v>
+      </c>
+      <c r="BC14" s="113">
+        <f t="shared" si="3"/>
+        <v>46812</v>
+      </c>
+      <c r="BD14" s="113">
+        <f t="shared" si="3"/>
+        <v>46843</v>
+      </c>
+      <c r="BE14" s="113">
+        <f t="shared" si="3"/>
+        <v>46873</v>
+      </c>
+      <c r="BF14" s="113">
+        <f t="shared" si="3"/>
+        <v>46904</v>
+      </c>
+      <c r="BG14" s="113">
+        <f t="shared" si="3"/>
+        <v>46934</v>
+      </c>
+      <c r="BH14" s="113">
+        <f t="shared" si="3"/>
+        <v>46965</v>
+      </c>
+      <c r="BI14" s="113">
+        <f t="shared" si="3"/>
+        <v>46996</v>
+      </c>
+      <c r="BJ14" s="113">
+        <f t="shared" si="3"/>
+        <v>47026</v>
+      </c>
+      <c r="BK14" s="113">
+        <f t="shared" si="3"/>
+        <v>47057</v>
+      </c>
+      <c r="BL14" s="113">
+        <f t="shared" si="3"/>
+        <v>47087</v>
+      </c>
+      <c r="BM14" s="113">
+        <f t="shared" si="3"/>
+        <v>47118</v>
+      </c>
+      <c r="BN14" s="113">
+        <f t="shared" si="3"/>
+        <v>47149</v>
+      </c>
+      <c r="BO14" s="113">
+        <f t="shared" si="3"/>
+        <v>47177</v>
+      </c>
+      <c r="BP14" s="113">
+        <f t="shared" si="3"/>
+        <v>47208</v>
+      </c>
+      <c r="BQ14" s="113">
+        <f t="shared" si="3"/>
+        <v>47238</v>
+      </c>
+      <c r="BR14" s="113">
+        <f t="shared" si="3"/>
+        <v>47269</v>
+      </c>
+      <c r="BS14" s="113">
+        <f t="shared" si="3"/>
+        <v>47299</v>
+      </c>
+      <c r="BT14" s="113">
+        <f t="shared" si="3"/>
+        <v>47330</v>
+      </c>
+      <c r="BU14" s="113">
+        <f t="shared" si="3"/>
+        <v>47361</v>
+      </c>
+      <c r="BV14" s="113">
+        <f t="shared" ref="BV14:BZ14" si="4">EOMONTH(BU14,1)</f>
+        <v>47391</v>
+      </c>
+      <c r="BW14" s="113">
+        <f t="shared" si="4"/>
+        <v>47422</v>
+      </c>
+      <c r="BX14" s="113">
+        <f t="shared" si="4"/>
+        <v>47452</v>
+      </c>
+      <c r="BY14" s="113">
+        <f t="shared" si="4"/>
+        <v>47483</v>
+      </c>
+      <c r="BZ14" s="18"/>
+    </row>
+    <row r="15" spans="1:78" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="112"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="112" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" s="112"/>
+      <c r="H15" s="114">
+        <f>SUMIFS($I$8:$R$8,$I$9:$R$9,"&lt;="&amp;H$14,$I$10:$R$10,"&gt;="&amp;H$14)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="114">
+        <f t="shared" ref="I15:X16" si="5">SUMIFS($I$8:$R$8,$I$9:$R$9,"&lt;="&amp;I$14,$I$10:$R$10,"&gt;="&amp;I$14)</f>
+        <v>1</v>
+      </c>
+      <c r="J15" s="114">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K15" s="114">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L15" s="114">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M15" s="114">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N15" s="114">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O15" s="114">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="P15" s="114">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Q15" s="114">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="R15" s="114">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="S15" s="114">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="T15" s="114">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="U15" s="114">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="V15" s="114">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="W15" s="114">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="X15" s="114">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="Y15" s="114">
+        <f t="shared" ref="Y15:AN16" si="6">SUMIFS($I$8:$R$8,$I$9:$R$9,"&lt;="&amp;Y$14,$I$10:$R$10,"&gt;="&amp;Y$14)</f>
+        <v>3</v>
+      </c>
+      <c r="Z15" s="114">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AA15" s="114">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="AB15" s="114">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="AC15" s="114">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="AD15" s="114">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="AE15" s="114">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="AF15" s="114">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="AG15" s="114">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="AH15" s="114">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="AI15" s="114">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="AJ15" s="114">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="AK15" s="114">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="AL15" s="114">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="AM15" s="114">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="AN15" s="114">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="AO15" s="114">
+        <f t="shared" ref="AO15:BD16" si="7">SUMIFS($I$8:$R$8,$I$9:$R$9,"&lt;="&amp;AO$14,$I$10:$R$10,"&gt;="&amp;AO$14)</f>
+        <v>6</v>
+      </c>
+      <c r="AP15" s="114">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="AQ15" s="114">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="AR15" s="114">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="AS15" s="114">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="AT15" s="114">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="AU15" s="114">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="AV15" s="114">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="AW15" s="114">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="AX15" s="114">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="AY15" s="114">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="AZ15" s="114">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="BA15" s="114">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="BB15" s="114">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="BC15" s="114">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="BD15" s="114">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="BE15" s="114">
+        <f t="shared" ref="BE15:BT16" si="8">SUMIFS($I$8:$R$8,$I$9:$R$9,"&lt;="&amp;BE$14,$I$10:$R$10,"&gt;="&amp;BE$14)</f>
+        <v>9</v>
+      </c>
+      <c r="BF15" s="114">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="BG15" s="114">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="BH15" s="114">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="BI15" s="114">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="BJ15" s="114">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="BK15" s="114">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="BL15" s="114">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="BM15" s="114">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="BN15" s="114">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="BO15" s="114">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="BP15" s="114">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="BQ15" s="114">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BR15" s="114">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BS15" s="114">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BT15" s="114">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BU15" s="114">
+        <f t="shared" ref="BU15:BY16" si="9">SUMIFS($I$8:$R$8,$I$9:$R$9,"&lt;="&amp;BU$14,$I$10:$R$10,"&gt;="&amp;BU$14)</f>
+        <v>0</v>
+      </c>
+      <c r="BV15" s="114">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BW15" s="114">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BX15" s="114">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BY15" s="114">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:78" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="115"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115" t="s">
+        <v>151</v>
+      </c>
+      <c r="G16" s="115"/>
+      <c r="H16" s="116">
+        <f>SUM($H$13:H13)*H11</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="116">
+        <f>SUM($H$13:I13)*I11</f>
+        <v>1</v>
+      </c>
+      <c r="J16" s="116">
+        <f>SUM($H$13:J13)*J11</f>
+        <v>1</v>
+      </c>
+      <c r="K16" s="116">
+        <f>SUM($H$13:K13)*K11</f>
+        <v>1</v>
+      </c>
+      <c r="L16" s="116">
+        <f>SUM($H$13:L13)*L11</f>
+        <v>1</v>
+      </c>
+      <c r="M16" s="116">
+        <f>SUM($H$13:M13)*M11</f>
+        <v>1</v>
+      </c>
+      <c r="N16" s="116">
+        <f>SUM($H$13:N13)*N11</f>
+        <v>1</v>
+      </c>
+      <c r="O16" s="116">
+        <f>SUM($H$13:O13)*O11</f>
+        <v>1</v>
+      </c>
+      <c r="P16" s="116">
+        <f>SUM($H$13:P13)*P11</f>
+        <v>1</v>
+      </c>
+      <c r="Q16" s="116">
+        <f>SUM($H$13:Q13)*Q11</f>
+        <v>1</v>
+      </c>
+      <c r="R16" s="116">
+        <f>SUM($H$13:R13)*R11</f>
+        <v>1</v>
+      </c>
+      <c r="S16" s="116">
+        <f>SUM($H$13:S13)*S11</f>
+        <v>1</v>
+      </c>
+      <c r="T16" s="116">
+        <f>SUM($H$13:T13)*T11</f>
+        <v>1</v>
+      </c>
+      <c r="U16" s="116">
+        <f>SUM($H$13:U13)*U11</f>
+        <v>2</v>
+      </c>
+      <c r="V16" s="116">
+        <f>SUM($H$13:V13)*V11</f>
+        <v>2</v>
+      </c>
+      <c r="W16" s="116">
+        <f>SUM($H$13:W13)*W11</f>
+        <v>2</v>
+      </c>
+      <c r="X16" s="116">
+        <f>SUM($H$13:X13)*X11</f>
+        <v>2</v>
+      </c>
+      <c r="Y16" s="116">
+        <f>SUM($H$13:Y13)*Y11</f>
+        <v>2</v>
+      </c>
+      <c r="Z16" s="116">
+        <f>SUM($H$13:Z13)*Z11</f>
+        <v>2</v>
+      </c>
+      <c r="AA16" s="116">
+        <f>SUM($H$13:AA13)*AA11</f>
+        <v>2</v>
+      </c>
+      <c r="AB16" s="116">
+        <f>SUM($H$13:AB13)*AB11</f>
+        <v>2</v>
+      </c>
+      <c r="AC16" s="116">
+        <f>SUM($H$13:AC13)*AC11</f>
+        <v>2</v>
+      </c>
+      <c r="AD16" s="116">
+        <f>SUM($H$13:AD13)*AD11</f>
+        <v>2</v>
+      </c>
+      <c r="AE16" s="116">
+        <f>SUM($H$13:AE13)*AE11</f>
+        <v>2</v>
+      </c>
+      <c r="AF16" s="116">
+        <f>SUM($H$13:AF13)*AF11</f>
+        <v>2</v>
+      </c>
+      <c r="AG16" s="116">
+        <f>SUM($H$13:AG13)*AG11</f>
+        <v>3</v>
+      </c>
+      <c r="AH16" s="116">
+        <f>SUM($H$13:AH13)*AH11</f>
+        <v>3</v>
+      </c>
+      <c r="AI16" s="116">
+        <f>SUM($H$13:AI13)*AI11</f>
+        <v>3</v>
+      </c>
+      <c r="AJ16" s="116">
+        <f>SUM($H$13:AJ13)*AJ11</f>
+        <v>3</v>
+      </c>
+      <c r="AK16" s="116">
+        <f>SUM($H$13:AK13)*AK11</f>
+        <v>3</v>
+      </c>
+      <c r="AL16" s="116">
+        <f>SUM($H$13:AL13)*AL11</f>
+        <v>3</v>
+      </c>
+      <c r="AM16" s="116">
+        <f>SUM($H$13:AM13)*AM11</f>
+        <v>3</v>
+      </c>
+      <c r="AN16" s="116">
+        <f>SUM($H$13:AN13)*AN11</f>
+        <v>3</v>
+      </c>
+      <c r="AO16" s="116">
+        <f>SUM($H$13:AO13)*AO11</f>
+        <v>3</v>
+      </c>
+      <c r="AP16" s="116">
+        <f>SUM($H$13:AP13)*AP11</f>
+        <v>3</v>
+      </c>
+      <c r="AQ16" s="116">
+        <f>SUM($H$13:AQ13)*AQ11</f>
+        <v>3</v>
+      </c>
+      <c r="AR16" s="116">
+        <f>SUM($H$13:AR13)*AR11</f>
+        <v>3</v>
+      </c>
+      <c r="AS16" s="116">
+        <f>SUM($H$13:AS13)*AS11</f>
+        <v>4</v>
+      </c>
+      <c r="AT16" s="116">
+        <f>SUM($H$13:AT13)*AT11</f>
+        <v>4</v>
+      </c>
+      <c r="AU16" s="116">
+        <f>SUM($H$13:AU13)*AU11</f>
+        <v>4</v>
+      </c>
+      <c r="AV16" s="116">
+        <f>SUM($H$13:AV13)*AV11</f>
+        <v>4</v>
+      </c>
+      <c r="AW16" s="116">
+        <f>SUM($H$13:AW13)*AW11</f>
+        <v>4</v>
+      </c>
+      <c r="AX16" s="116">
+        <f>SUM($H$13:AX13)*AX11</f>
+        <v>4</v>
+      </c>
+      <c r="AY16" s="116">
+        <f>SUM($H$13:AY13)*AY11</f>
+        <v>4</v>
+      </c>
+      <c r="AZ16" s="116">
+        <f>SUM($H$13:AZ13)*AZ11</f>
+        <v>4</v>
+      </c>
+      <c r="BA16" s="116">
+        <f>SUM($H$13:BA13)*BA11</f>
+        <v>4</v>
+      </c>
+      <c r="BB16" s="116">
+        <f>SUM($H$13:BB13)*BB11</f>
+        <v>4</v>
+      </c>
+      <c r="BC16" s="116">
+        <f>SUM($H$13:BC13)*BC11</f>
+        <v>4</v>
+      </c>
+      <c r="BD16" s="116">
+        <f>SUM($H$13:BD13)*BD11</f>
+        <v>4</v>
+      </c>
+      <c r="BE16" s="116">
+        <f>SUM($H$13:BE13)*BE11</f>
+        <v>5</v>
+      </c>
+      <c r="BF16" s="116">
+        <f>SUM($H$13:BF13)*BF11</f>
+        <v>5</v>
+      </c>
+      <c r="BG16" s="116">
+        <f>SUM($H$13:BG13)*BG11</f>
+        <v>5</v>
+      </c>
+      <c r="BH16" s="116">
+        <f>SUM($H$13:BH13)*BH11</f>
+        <v>5</v>
+      </c>
+      <c r="BI16" s="116">
+        <f>SUM($H$13:BI13)*BI11</f>
+        <v>5</v>
+      </c>
+      <c r="BJ16" s="116">
+        <f>SUM($H$13:BJ13)*BJ11</f>
+        <v>5</v>
+      </c>
+      <c r="BK16" s="116">
+        <f>SUM($H$13:BK13)*BK11</f>
+        <v>5</v>
+      </c>
+      <c r="BL16" s="116">
+        <f>SUM($H$13:BL13)*BL11</f>
+        <v>5</v>
+      </c>
+      <c r="BM16" s="116">
+        <f>SUM($H$13:BM13)*BM11</f>
+        <v>5</v>
+      </c>
+      <c r="BN16" s="116">
+        <f>SUM($H$13:BN13)*BN11</f>
+        <v>5</v>
+      </c>
+      <c r="BO16" s="116">
+        <f>SUM($H$13:BO13)*BO11</f>
+        <v>5</v>
+      </c>
+      <c r="BP16" s="116">
+        <f>SUM($H$13:BP13)*BP11</f>
+        <v>5</v>
+      </c>
+      <c r="BQ16" s="116">
+        <f>SUM($H$13:BQ13)*BQ11</f>
+        <v>0</v>
+      </c>
+      <c r="BR16" s="116">
+        <f>SUM($H$13:BR13)*BR11</f>
+        <v>0</v>
+      </c>
+      <c r="BS16" s="116">
+        <f>SUM($H$13:BS13)*BS11</f>
+        <v>0</v>
+      </c>
+      <c r="BT16" s="116">
+        <f>SUM($H$13:BT13)*BT11</f>
+        <v>0</v>
+      </c>
+      <c r="BU16" s="116">
+        <f>SUM($H$13:BU13)*BU11</f>
+        <v>0</v>
+      </c>
+      <c r="BV16" s="116">
+        <f>SUM($H$13:BV13)*BV11</f>
+        <v>0</v>
+      </c>
+      <c r="BW16" s="116">
+        <f>SUM($H$13:BW13)*BW11</f>
+        <v>0</v>
+      </c>
+      <c r="BX16" s="116">
+        <f>SUM($H$13:BX13)*BX11</f>
+        <v>0</v>
+      </c>
+      <c r="BY16" s="116">
+        <f>SUM($H$13:BY13)*BY11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="4" t="str">
+        <f>'A&amp;R'!C36</f>
+        <v>지상3층</v>
+      </c>
+    </row>
+    <row r="18" spans="2:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C18" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="2:77" s="111" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F19" s="111" t="s">
+        <v>156</v>
+      </c>
+      <c r="H19" s="111">
+        <f>(H$14&lt;=$F20)*1</f>
+        <v>1</v>
+      </c>
+      <c r="I19" s="111">
+        <f t="shared" ref="I19:BT19" si="10">(I$14&lt;=$F20)*1</f>
+        <v>1</v>
+      </c>
+      <c r="J19" s="111">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="K19" s="111">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="L19" s="111">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="M19" s="111">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N19" s="111">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="O19" s="111">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="P19" s="111">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Q19" s="111">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="R19" s="111">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="S19" s="111">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="T19" s="111">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="U19" s="111">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="V19" s="111">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="W19" s="111">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X19" s="111">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Y19" s="111">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Z19" s="111">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AA19" s="111">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AB19" s="111">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AC19" s="111">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AD19" s="111">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AE19" s="111">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AF19" s="111">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AG19" s="111">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AH19" s="111">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AI19" s="111">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AJ19" s="111">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AK19" s="111">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AL19" s="111">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AM19" s="111">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN19" s="111">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AO19" s="111">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AP19" s="111">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="111">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AR19" s="111">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AS19" s="111">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AT19" s="111">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AU19" s="111">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AV19" s="111">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AW19" s="111">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AX19" s="111">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY19" s="111">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AZ19" s="111">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BA19" s="111">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BB19" s="111">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BC19" s="111">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BD19" s="111">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BE19" s="111">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BF19" s="111">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BG19" s="111">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BH19" s="111">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BI19" s="111">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BJ19" s="111">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BK19" s="111">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BL19" s="111">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BM19" s="111">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BN19" s="111">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BO19" s="111">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BP19" s="111">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BQ19" s="111">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BR19" s="111">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BS19" s="111">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BT19" s="111">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BU19" s="111">
+        <f t="shared" ref="BU19:BY19" si="11">(BU$14&lt;=$F20)*1</f>
+        <v>0</v>
+      </c>
+      <c r="BV19" s="111">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BW19" s="111">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BX19" s="111">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BY19" s="111">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E20" s="117" t="s">
+        <v>157</v>
+      </c>
+      <c r="F20" s="118">
+        <f>VLOOKUP($B$17,'A&amp;R'!$C$36:$N$41,6,0)</f>
+        <v>46265</v>
+      </c>
+    </row>
+    <row r="21" spans="2:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E21" s="119" t="s">
+        <v>158</v>
+      </c>
+      <c r="F21" s="120">
+        <f>VLOOKUP($B$17,'A&amp;R'!$C$36:$N$41,8,0)</f>
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E22" s="119" t="s">
+        <v>159</v>
+      </c>
+      <c r="F22" s="121">
+        <f>VLOOKUP($B$17,'A&amp;R'!$C$36:$N$41,12,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E23" s="119" t="s">
+        <v>160</v>
+      </c>
+      <c r="F23" s="122">
+        <f>VLOOKUP($B$17,'A&amp;R'!$C$36:$N$41,4,0)</f>
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="24" spans="2:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E24" s="119" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="120">
+        <f>VLOOKUP($B$17,'A&amp;R'!$C$36:$N$41,10,0)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E25" s="123" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="124">
+        <f>VLOOKUP($B$17,'A&amp;R'!$C$36:$N$41,7,0)</f>
+        <v>242.928</v>
+      </c>
+    </row>
+    <row r="26" spans="2:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D26" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="2:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E27" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57">
+        <f>$F21*H19</f>
+        <v>24000</v>
+      </c>
+      <c r="I27" s="57">
+        <f t="shared" ref="I27:BT27" si="12">$F21*I19</f>
+        <v>24000</v>
+      </c>
+      <c r="J27" s="57">
+        <f t="shared" si="12"/>
+        <v>24000</v>
+      </c>
+      <c r="K27" s="57">
+        <f t="shared" si="12"/>
+        <v>24000</v>
+      </c>
+      <c r="L27" s="57">
+        <f t="shared" si="12"/>
+        <v>24000</v>
+      </c>
+      <c r="M27" s="57">
+        <f t="shared" si="12"/>
+        <v>24000</v>
+      </c>
+      <c r="N27" s="57">
+        <f t="shared" si="12"/>
+        <v>24000</v>
+      </c>
+      <c r="O27" s="57">
+        <f t="shared" si="12"/>
+        <v>24000</v>
+      </c>
+      <c r="P27" s="57">
+        <f t="shared" si="12"/>
+        <v>24000</v>
+      </c>
+      <c r="Q27" s="57">
+        <f t="shared" si="12"/>
+        <v>24000</v>
+      </c>
+      <c r="R27" s="57">
+        <f t="shared" si="12"/>
+        <v>24000</v>
+      </c>
+      <c r="S27" s="57">
+        <f t="shared" si="12"/>
+        <v>24000</v>
+      </c>
+      <c r="T27" s="57">
+        <f t="shared" si="12"/>
+        <v>24000</v>
+      </c>
+      <c r="U27" s="57">
+        <f t="shared" si="12"/>
+        <v>24000</v>
+      </c>
+      <c r="V27" s="57">
+        <f t="shared" si="12"/>
+        <v>24000</v>
+      </c>
+      <c r="W27" s="57">
+        <f t="shared" si="12"/>
+        <v>24000</v>
+      </c>
+      <c r="X27" s="57">
+        <f t="shared" si="12"/>
+        <v>24000</v>
+      </c>
+      <c r="Y27" s="57">
+        <f t="shared" si="12"/>
+        <v>24000</v>
+      </c>
+      <c r="Z27" s="57">
+        <f t="shared" si="12"/>
+        <v>24000</v>
+      </c>
+      <c r="AA27" s="57">
+        <f t="shared" si="12"/>
+        <v>24000</v>
+      </c>
+      <c r="AB27" s="57">
+        <f t="shared" si="12"/>
+        <v>24000</v>
+      </c>
+      <c r="AC27" s="57">
+        <f t="shared" si="12"/>
+        <v>24000</v>
+      </c>
+      <c r="AD27" s="57">
+        <f t="shared" si="12"/>
+        <v>24000</v>
+      </c>
+      <c r="AE27" s="57">
+        <f t="shared" si="12"/>
+        <v>24000</v>
+      </c>
+      <c r="AF27" s="57">
+        <f t="shared" si="12"/>
+        <v>24000</v>
+      </c>
+      <c r="AG27" s="57">
+        <f t="shared" si="12"/>
+        <v>24000</v>
+      </c>
+      <c r="AH27" s="57">
+        <f t="shared" si="12"/>
+        <v>24000</v>
+      </c>
+      <c r="AI27" s="57">
+        <f t="shared" si="12"/>
+        <v>24000</v>
+      </c>
+      <c r="AJ27" s="57">
+        <f t="shared" si="12"/>
+        <v>24000</v>
+      </c>
+      <c r="AK27" s="57">
+        <f t="shared" si="12"/>
+        <v>24000</v>
+      </c>
+      <c r="AL27" s="57">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM27" s="57">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AN27" s="57">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AO27" s="57">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP27" s="57">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="57">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AR27" s="57">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AS27" s="57">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AT27" s="57">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AU27" s="57">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AV27" s="57">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AW27" s="57">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AX27" s="57">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AY27" s="57">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AZ27" s="57">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BA27" s="57">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BB27" s="57">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BC27" s="57">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BD27" s="57">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BE27" s="57">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BF27" s="57">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BG27" s="57">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BH27" s="57">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BI27" s="57">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BJ27" s="57">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BK27" s="57">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BL27" s="57">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BM27" s="57">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BN27" s="57">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BO27" s="57">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BP27" s="57">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BQ27" s="57">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BR27" s="57">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BS27" s="57">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BT27" s="57">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BU27" s="57">
+        <f t="shared" ref="BU27:BY27" si="13">$F21*BU19</f>
+        <v>0</v>
+      </c>
+      <c r="BV27" s="57">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="BW27" s="57">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="BX27" s="57">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="BY27" s="76">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E28" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55">
+        <f>H27*((12-$F22)/12)</f>
+        <v>22000</v>
+      </c>
+      <c r="I28" s="55">
+        <f t="shared" ref="I28:BT28" si="14">I27*((12-$F22)/12)</f>
+        <v>22000</v>
+      </c>
+      <c r="J28" s="55">
+        <f t="shared" si="14"/>
+        <v>22000</v>
+      </c>
+      <c r="K28" s="55">
+        <f t="shared" si="14"/>
+        <v>22000</v>
+      </c>
+      <c r="L28" s="55">
+        <f t="shared" si="14"/>
+        <v>22000</v>
+      </c>
+      <c r="M28" s="55">
+        <f t="shared" si="14"/>
+        <v>22000</v>
+      </c>
+      <c r="N28" s="55">
+        <f t="shared" si="14"/>
+        <v>22000</v>
+      </c>
+      <c r="O28" s="55">
+        <f t="shared" si="14"/>
+        <v>22000</v>
+      </c>
+      <c r="P28" s="55">
+        <f t="shared" si="14"/>
+        <v>22000</v>
+      </c>
+      <c r="Q28" s="55">
+        <f t="shared" si="14"/>
+        <v>22000</v>
+      </c>
+      <c r="R28" s="55">
+        <f t="shared" si="14"/>
+        <v>22000</v>
+      </c>
+      <c r="S28" s="55">
+        <f t="shared" si="14"/>
+        <v>22000</v>
+      </c>
+      <c r="T28" s="55">
+        <f t="shared" si="14"/>
+        <v>22000</v>
+      </c>
+      <c r="U28" s="55">
+        <f t="shared" si="14"/>
+        <v>22000</v>
+      </c>
+      <c r="V28" s="55">
+        <f t="shared" si="14"/>
+        <v>22000</v>
+      </c>
+      <c r="W28" s="55">
+        <f t="shared" si="14"/>
+        <v>22000</v>
+      </c>
+      <c r="X28" s="55">
+        <f t="shared" si="14"/>
+        <v>22000</v>
+      </c>
+      <c r="Y28" s="55">
+        <f t="shared" si="14"/>
+        <v>22000</v>
+      </c>
+      <c r="Z28" s="55">
+        <f t="shared" si="14"/>
+        <v>22000</v>
+      </c>
+      <c r="AA28" s="55">
+        <f t="shared" si="14"/>
+        <v>22000</v>
+      </c>
+      <c r="AB28" s="55">
+        <f t="shared" si="14"/>
+        <v>22000</v>
+      </c>
+      <c r="AC28" s="55">
+        <f t="shared" si="14"/>
+        <v>22000</v>
+      </c>
+      <c r="AD28" s="55">
+        <f t="shared" si="14"/>
+        <v>22000</v>
+      </c>
+      <c r="AE28" s="55">
+        <f t="shared" si="14"/>
+        <v>22000</v>
+      </c>
+      <c r="AF28" s="55">
+        <f t="shared" si="14"/>
+        <v>22000</v>
+      </c>
+      <c r="AG28" s="55">
+        <f t="shared" si="14"/>
+        <v>22000</v>
+      </c>
+      <c r="AH28" s="55">
+        <f t="shared" si="14"/>
+        <v>22000</v>
+      </c>
+      <c r="AI28" s="55">
+        <f t="shared" si="14"/>
+        <v>22000</v>
+      </c>
+      <c r="AJ28" s="55">
+        <f t="shared" si="14"/>
+        <v>22000</v>
+      </c>
+      <c r="AK28" s="55">
+        <f t="shared" si="14"/>
+        <v>22000</v>
+      </c>
+      <c r="AL28" s="55">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AM28" s="55">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AN28" s="55">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AO28" s="55">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AP28" s="55">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="55">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AR28" s="55">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AS28" s="55">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AT28" s="55">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AU28" s="55">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AV28" s="55">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AW28" s="55">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AX28" s="55">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AY28" s="55">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AZ28" s="55">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BA28" s="55">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BB28" s="55">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BC28" s="55">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BD28" s="55">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BE28" s="55">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BF28" s="55">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BG28" s="55">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BH28" s="55">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BI28" s="55">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BJ28" s="55">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BK28" s="55">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BL28" s="55">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BM28" s="55">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BN28" s="55">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BO28" s="55">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BP28" s="55">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BQ28" s="55">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BR28" s="55">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BS28" s="55">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BT28" s="55">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BU28" s="55">
+        <f t="shared" ref="BU28:BY28" si="15">BU27*((12-$F22)/12)</f>
+        <v>0</v>
+      </c>
+      <c r="BV28" s="55">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BW28" s="55">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BX28" s="55">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BY28" s="58">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D29" s="125" t="s">
+        <v>165</v>
+      </c>
+      <c r="E29" s="125"/>
+      <c r="F29" s="125"/>
+      <c r="G29" s="125"/>
+      <c r="H29" s="125">
+        <f>H28*$F23/unit</f>
+        <v>37.113999999999997</v>
+      </c>
+      <c r="I29" s="125">
+        <f>I28*$F23/unit</f>
+        <v>37.113999999999997</v>
+      </c>
+      <c r="J29" s="125">
+        <f>J28*$F23/unit</f>
+        <v>37.113999999999997</v>
+      </c>
+      <c r="K29" s="125">
+        <f>K28*$F23/unit</f>
+        <v>37.113999999999997</v>
+      </c>
+      <c r="L29" s="125">
+        <f>L28*$F23/unit</f>
+        <v>37.113999999999997</v>
+      </c>
+      <c r="M29" s="125">
+        <f>M28*$F23/unit</f>
+        <v>37.113999999999997</v>
+      </c>
+      <c r="N29" s="125">
+        <f>N28*$F23/unit</f>
+        <v>37.113999999999997</v>
+      </c>
+      <c r="O29" s="125">
+        <f>O28*$F23/unit</f>
+        <v>37.113999999999997</v>
+      </c>
+      <c r="P29" s="125">
+        <f>P28*$F23/unit</f>
+        <v>37.113999999999997</v>
+      </c>
+      <c r="Q29" s="125">
+        <f>Q28*$F23/unit</f>
+        <v>37.113999999999997</v>
+      </c>
+      <c r="R29" s="125">
+        <f>R28*$F23/unit</f>
+        <v>37.113999999999997</v>
+      </c>
+      <c r="S29" s="125">
+        <f>S28*$F23/unit</f>
+        <v>37.113999999999997</v>
+      </c>
+      <c r="T29" s="125">
+        <f>T28*$F23/unit</f>
+        <v>37.113999999999997</v>
+      </c>
+      <c r="U29" s="125">
+        <f>U28*$F23/unit</f>
+        <v>37.113999999999997</v>
+      </c>
+      <c r="V29" s="125">
+        <f>V28*$F23/unit</f>
+        <v>37.113999999999997</v>
+      </c>
+      <c r="W29" s="125">
+        <f>W28*$F23/unit</f>
+        <v>37.113999999999997</v>
+      </c>
+      <c r="X29" s="125">
+        <f>X28*$F23/unit</f>
+        <v>37.113999999999997</v>
+      </c>
+      <c r="Y29" s="125">
+        <f>Y28*$F23/unit</f>
+        <v>37.113999999999997</v>
+      </c>
+      <c r="Z29" s="125">
+        <f>Z28*$F23/unit</f>
+        <v>37.113999999999997</v>
+      </c>
+      <c r="AA29" s="125">
+        <f>AA28*$F23/unit</f>
+        <v>37.113999999999997</v>
+      </c>
+      <c r="AB29" s="125">
+        <f>AB28*$F23/unit</f>
+        <v>37.113999999999997</v>
+      </c>
+      <c r="AC29" s="125">
+        <f>AC28*$F23/unit</f>
+        <v>37.113999999999997</v>
+      </c>
+      <c r="AD29" s="125">
+        <f>AD28*$F23/unit</f>
+        <v>37.113999999999997</v>
+      </c>
+      <c r="AE29" s="125">
+        <f>AE28*$F23/unit</f>
+        <v>37.113999999999997</v>
+      </c>
+      <c r="AF29" s="125">
+        <f>AF28*$F23/unit</f>
+        <v>37.113999999999997</v>
+      </c>
+      <c r="AG29" s="125">
+        <f>AG28*$F23/unit</f>
+        <v>37.113999999999997</v>
+      </c>
+      <c r="AH29" s="125">
+        <f>AH28*$F23/unit</f>
+        <v>37.113999999999997</v>
+      </c>
+      <c r="AI29" s="125">
+        <f>AI28*$F23/unit</f>
+        <v>37.113999999999997</v>
+      </c>
+      <c r="AJ29" s="125">
+        <f>AJ28*$F23/unit</f>
+        <v>37.113999999999997</v>
+      </c>
+      <c r="AK29" s="125">
+        <f>AK28*$F23/unit</f>
+        <v>37.113999999999997</v>
+      </c>
+      <c r="AL29" s="125">
+        <f>AL28*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="AM29" s="125">
+        <f>AM28*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="AN29" s="125">
+        <f>AN28*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="AO29" s="125">
+        <f>AO28*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="AP29" s="125">
+        <f>AP28*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="125">
+        <f>AQ28*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="AR29" s="125">
+        <f>AR28*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="AS29" s="125">
+        <f>AS28*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="AT29" s="125">
+        <f>AT28*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="AU29" s="125">
+        <f>AU28*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="AV29" s="125">
+        <f>AV28*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="AW29" s="125">
+        <f>AW28*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="AX29" s="125">
+        <f>AX28*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="AY29" s="125">
+        <f>AY28*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="AZ29" s="125">
+        <f>AZ28*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BA29" s="125">
+        <f>BA28*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BB29" s="125">
+        <f>BB28*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BC29" s="125">
+        <f>BC28*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BD29" s="125">
+        <f>BD28*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BE29" s="125">
+        <f>BE28*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BF29" s="125">
+        <f>BF28*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BG29" s="125">
+        <f>BG28*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BH29" s="125">
+        <f>BH28*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BI29" s="125">
+        <f>BI28*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BJ29" s="125">
+        <f>BJ28*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BK29" s="125">
+        <f>BK28*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BL29" s="125">
+        <f>BL28*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BM29" s="125">
+        <f>BM28*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BN29" s="125">
+        <f>BN28*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BO29" s="125">
+        <f>BO28*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BP29" s="125">
+        <f>BP28*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BQ29" s="125">
+        <f>BQ28*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BR29" s="125">
+        <f>BR28*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BS29" s="125">
+        <f>BS28*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BT29" s="125">
+        <f>BT28*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BU29" s="125">
+        <f>BU28*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BV29" s="125">
+        <f>BV28*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BW29" s="125">
+        <f>BW28*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BX29" s="125">
+        <f>BX28*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BY29" s="125">
+        <f>BY28*$F23/unit</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D31" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="32" spans="2:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E32" s="126" t="s">
+        <v>167</v>
+      </c>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59">
+        <f>$F24*H19</f>
+        <v>2000</v>
+      </c>
+      <c r="I32" s="59">
+        <f t="shared" ref="I32:BT32" si="16">$F24*I19</f>
+        <v>2000</v>
+      </c>
+      <c r="J32" s="59">
+        <f t="shared" si="16"/>
+        <v>2000</v>
+      </c>
+      <c r="K32" s="59">
+        <f t="shared" si="16"/>
+        <v>2000</v>
+      </c>
+      <c r="L32" s="59">
+        <f t="shared" si="16"/>
+        <v>2000</v>
+      </c>
+      <c r="M32" s="59">
+        <f t="shared" si="16"/>
+        <v>2000</v>
+      </c>
+      <c r="N32" s="59">
+        <f t="shared" si="16"/>
+        <v>2000</v>
+      </c>
+      <c r="O32" s="59">
+        <f t="shared" si="16"/>
+        <v>2000</v>
+      </c>
+      <c r="P32" s="59">
+        <f t="shared" si="16"/>
+        <v>2000</v>
+      </c>
+      <c r="Q32" s="59">
+        <f t="shared" si="16"/>
+        <v>2000</v>
+      </c>
+      <c r="R32" s="59">
+        <f t="shared" si="16"/>
+        <v>2000</v>
+      </c>
+      <c r="S32" s="59">
+        <f t="shared" si="16"/>
+        <v>2000</v>
+      </c>
+      <c r="T32" s="59">
+        <f t="shared" si="16"/>
+        <v>2000</v>
+      </c>
+      <c r="U32" s="59">
+        <f t="shared" si="16"/>
+        <v>2000</v>
+      </c>
+      <c r="V32" s="59">
+        <f t="shared" si="16"/>
+        <v>2000</v>
+      </c>
+      <c r="W32" s="59">
+        <f t="shared" si="16"/>
+        <v>2000</v>
+      </c>
+      <c r="X32" s="59">
+        <f t="shared" si="16"/>
+        <v>2000</v>
+      </c>
+      <c r="Y32" s="59">
+        <f t="shared" si="16"/>
+        <v>2000</v>
+      </c>
+      <c r="Z32" s="59">
+        <f t="shared" si="16"/>
+        <v>2000</v>
+      </c>
+      <c r="AA32" s="59">
+        <f t="shared" si="16"/>
+        <v>2000</v>
+      </c>
+      <c r="AB32" s="59">
+        <f t="shared" si="16"/>
+        <v>2000</v>
+      </c>
+      <c r="AC32" s="59">
+        <f t="shared" si="16"/>
+        <v>2000</v>
+      </c>
+      <c r="AD32" s="59">
+        <f t="shared" si="16"/>
+        <v>2000</v>
+      </c>
+      <c r="AE32" s="59">
+        <f t="shared" si="16"/>
+        <v>2000</v>
+      </c>
+      <c r="AF32" s="59">
+        <f t="shared" si="16"/>
+        <v>2000</v>
+      </c>
+      <c r="AG32" s="59">
+        <f t="shared" si="16"/>
+        <v>2000</v>
+      </c>
+      <c r="AH32" s="59">
+        <f t="shared" si="16"/>
+        <v>2000</v>
+      </c>
+      <c r="AI32" s="59">
+        <f t="shared" si="16"/>
+        <v>2000</v>
+      </c>
+      <c r="AJ32" s="59">
+        <f t="shared" si="16"/>
+        <v>2000</v>
+      </c>
+      <c r="AK32" s="59">
+        <f t="shared" si="16"/>
+        <v>2000</v>
+      </c>
+      <c r="AL32" s="59">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AM32" s="59">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AN32" s="59">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AO32" s="59">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AP32" s="59">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AQ32" s="59">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AR32" s="59">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AS32" s="59">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AT32" s="59">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AU32" s="59">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AV32" s="59">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AW32" s="59">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AX32" s="59">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AY32" s="59">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AZ32" s="59">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BA32" s="59">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BB32" s="59">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BC32" s="59">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BD32" s="59">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BE32" s="59">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BF32" s="59">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BG32" s="59">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BH32" s="59">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BI32" s="59">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BJ32" s="59">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BK32" s="59">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BL32" s="59">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BM32" s="59">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BN32" s="59">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BO32" s="59">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BP32" s="59">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BQ32" s="59">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BR32" s="59">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BS32" s="59">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BT32" s="59">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BU32" s="59">
+        <f t="shared" ref="BU32:BY32" si="17">$F24*BU19</f>
+        <v>0</v>
+      </c>
+      <c r="BV32" s="59">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BW32" s="59">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BX32" s="59">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BY32" s="127">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="4:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D33" s="125" t="s">
+        <v>168</v>
+      </c>
+      <c r="E33" s="125"/>
+      <c r="F33" s="125"/>
+      <c r="G33" s="125"/>
+      <c r="H33" s="125">
+        <f>H32*$F23/unit</f>
+        <v>3.3740000000000001</v>
+      </c>
+      <c r="I33" s="125">
+        <f>I32*$F23/unit</f>
+        <v>3.3740000000000001</v>
+      </c>
+      <c r="J33" s="125">
+        <f>J32*$F23/unit</f>
+        <v>3.3740000000000001</v>
+      </c>
+      <c r="K33" s="125">
+        <f>K32*$F23/unit</f>
+        <v>3.3740000000000001</v>
+      </c>
+      <c r="L33" s="125">
+        <f>L32*$F23/unit</f>
+        <v>3.3740000000000001</v>
+      </c>
+      <c r="M33" s="125">
+        <f>M32*$F23/unit</f>
+        <v>3.3740000000000001</v>
+      </c>
+      <c r="N33" s="125">
+        <f>N32*$F23/unit</f>
+        <v>3.3740000000000001</v>
+      </c>
+      <c r="O33" s="125">
+        <f>O32*$F23/unit</f>
+        <v>3.3740000000000001</v>
+      </c>
+      <c r="P33" s="125">
+        <f>P32*$F23/unit</f>
+        <v>3.3740000000000001</v>
+      </c>
+      <c r="Q33" s="125">
+        <f>Q32*$F23/unit</f>
+        <v>3.3740000000000001</v>
+      </c>
+      <c r="R33" s="125">
+        <f>R32*$F23/unit</f>
+        <v>3.3740000000000001</v>
+      </c>
+      <c r="S33" s="125">
+        <f>S32*$F23/unit</f>
+        <v>3.3740000000000001</v>
+      </c>
+      <c r="T33" s="125">
+        <f>T32*$F23/unit</f>
+        <v>3.3740000000000001</v>
+      </c>
+      <c r="U33" s="125">
+        <f>U32*$F23/unit</f>
+        <v>3.3740000000000001</v>
+      </c>
+      <c r="V33" s="125">
+        <f>V32*$F23/unit</f>
+        <v>3.3740000000000001</v>
+      </c>
+      <c r="W33" s="125">
+        <f>W32*$F23/unit</f>
+        <v>3.3740000000000001</v>
+      </c>
+      <c r="X33" s="125">
+        <f>X32*$F23/unit</f>
+        <v>3.3740000000000001</v>
+      </c>
+      <c r="Y33" s="125">
+        <f>Y32*$F23/unit</f>
+        <v>3.3740000000000001</v>
+      </c>
+      <c r="Z33" s="125">
+        <f>Z32*$F23/unit</f>
+        <v>3.3740000000000001</v>
+      </c>
+      <c r="AA33" s="125">
+        <f>AA32*$F23/unit</f>
+        <v>3.3740000000000001</v>
+      </c>
+      <c r="AB33" s="125">
+        <f>AB32*$F23/unit</f>
+        <v>3.3740000000000001</v>
+      </c>
+      <c r="AC33" s="125">
+        <f>AC32*$F23/unit</f>
+        <v>3.3740000000000001</v>
+      </c>
+      <c r="AD33" s="125">
+        <f>AD32*$F23/unit</f>
+        <v>3.3740000000000001</v>
+      </c>
+      <c r="AE33" s="125">
+        <f>AE32*$F23/unit</f>
+        <v>3.3740000000000001</v>
+      </c>
+      <c r="AF33" s="125">
+        <f>AF32*$F23/unit</f>
+        <v>3.3740000000000001</v>
+      </c>
+      <c r="AG33" s="125">
+        <f>AG32*$F23/unit</f>
+        <v>3.3740000000000001</v>
+      </c>
+      <c r="AH33" s="125">
+        <f>AH32*$F23/unit</f>
+        <v>3.3740000000000001</v>
+      </c>
+      <c r="AI33" s="125">
+        <f>AI32*$F23/unit</f>
+        <v>3.3740000000000001</v>
+      </c>
+      <c r="AJ33" s="125">
+        <f>AJ32*$F23/unit</f>
+        <v>3.3740000000000001</v>
+      </c>
+      <c r="AK33" s="125">
+        <f>AK32*$F23/unit</f>
+        <v>3.3740000000000001</v>
+      </c>
+      <c r="AL33" s="125">
+        <f>AL32*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="AM33" s="125">
+        <f>AM32*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="AN33" s="125">
+        <f>AN32*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="AO33" s="125">
+        <f>AO32*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="AP33" s="125">
+        <f>AP32*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="AQ33" s="125">
+        <f>AQ32*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="AR33" s="125">
+        <f>AR32*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="AS33" s="125">
+        <f>AS32*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="AT33" s="125">
+        <f>AT32*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="AU33" s="125">
+        <f>AU32*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="AV33" s="125">
+        <f>AV32*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="AW33" s="125">
+        <f>AW32*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="AX33" s="125">
+        <f>AX32*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="AY33" s="125">
+        <f>AY32*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="AZ33" s="125">
+        <f>AZ32*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BA33" s="125">
+        <f>BA32*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BB33" s="125">
+        <f>BB32*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BC33" s="125">
+        <f>BC32*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BD33" s="125">
+        <f>BD32*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BE33" s="125">
+        <f>BE32*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BF33" s="125">
+        <f>BF32*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BG33" s="125">
+        <f>BG32*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BH33" s="125">
+        <f>BH32*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BI33" s="125">
+        <f>BI32*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BJ33" s="125">
+        <f>BJ32*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BK33" s="125">
+        <f>BK32*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BL33" s="125">
+        <f>BL32*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BM33" s="125">
+        <f>BM32*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BN33" s="125">
+        <f>BN32*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BO33" s="125">
+        <f>BO32*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BP33" s="125">
+        <f>BP32*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BQ33" s="125">
+        <f>BQ32*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BR33" s="125">
+        <f>BR32*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BS33" s="125">
+        <f>BS32*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BT33" s="125">
+        <f>BT32*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BU33" s="125">
+        <f>BU32*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BV33" s="125">
+        <f>BV32*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BW33" s="125">
+        <f>BW32*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BX33" s="125">
+        <f>BX32*$F23/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BY33" s="125">
+        <f>BY32*$F23/unit</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="4:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D35" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="4:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E36" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H36" s="2">
+        <f>F25</f>
+        <v>242.928</v>
+      </c>
+      <c r="I36" s="2">
+        <f>H39</f>
+        <v>242.928</v>
+      </c>
+      <c r="J36" s="2">
+        <f t="shared" ref="J36:BU36" si="18">I39</f>
+        <v>242.928</v>
+      </c>
+      <c r="K36" s="2">
+        <f t="shared" si="18"/>
+        <v>242.928</v>
+      </c>
+      <c r="L36" s="2">
+        <f t="shared" si="18"/>
+        <v>242.928</v>
+      </c>
+      <c r="M36" s="2">
+        <f t="shared" si="18"/>
+        <v>242.928</v>
+      </c>
+      <c r="N36" s="2">
+        <f t="shared" si="18"/>
+        <v>242.928</v>
+      </c>
+      <c r="O36" s="2">
+        <f t="shared" si="18"/>
+        <v>242.928</v>
+      </c>
+      <c r="P36" s="2">
+        <f t="shared" si="18"/>
+        <v>242.928</v>
+      </c>
+      <c r="Q36" s="2">
+        <f t="shared" si="18"/>
+        <v>242.928</v>
+      </c>
+      <c r="R36" s="2">
+        <f t="shared" si="18"/>
+        <v>242.928</v>
+      </c>
+      <c r="S36" s="2">
+        <f t="shared" si="18"/>
+        <v>242.928</v>
+      </c>
+      <c r="T36" s="2">
+        <f t="shared" si="18"/>
+        <v>242.928</v>
+      </c>
+      <c r="U36" s="2">
+        <f t="shared" si="18"/>
+        <v>242.928</v>
+      </c>
+      <c r="V36" s="2">
+        <f t="shared" si="18"/>
+        <v>242.928</v>
+      </c>
+      <c r="W36" s="2">
+        <f t="shared" si="18"/>
+        <v>242.928</v>
+      </c>
+      <c r="X36" s="2">
+        <f t="shared" si="18"/>
+        <v>242.928</v>
+      </c>
+      <c r="Y36" s="2">
+        <f t="shared" si="18"/>
+        <v>242.928</v>
+      </c>
+      <c r="Z36" s="2">
+        <f t="shared" si="18"/>
+        <v>242.928</v>
+      </c>
+      <c r="AA36" s="2">
+        <f t="shared" si="18"/>
+        <v>242.928</v>
+      </c>
+      <c r="AB36" s="2">
+        <f t="shared" si="18"/>
+        <v>242.928</v>
+      </c>
+      <c r="AC36" s="2">
+        <f t="shared" si="18"/>
+        <v>242.928</v>
+      </c>
+      <c r="AD36" s="2">
+        <f t="shared" si="18"/>
+        <v>242.928</v>
+      </c>
+      <c r="AE36" s="2">
+        <f t="shared" si="18"/>
+        <v>242.928</v>
+      </c>
+      <c r="AF36" s="2">
+        <f t="shared" si="18"/>
+        <v>242.928</v>
+      </c>
+      <c r="AG36" s="2">
+        <f t="shared" si="18"/>
+        <v>242.928</v>
+      </c>
+      <c r="AH36" s="2">
+        <f t="shared" si="18"/>
+        <v>242.928</v>
+      </c>
+      <c r="AI36" s="2">
+        <f t="shared" si="18"/>
+        <v>242.928</v>
+      </c>
+      <c r="AJ36" s="2">
+        <f t="shared" si="18"/>
+        <v>242.928</v>
+      </c>
+      <c r="AK36" s="2">
+        <f t="shared" si="18"/>
+        <v>242.928</v>
+      </c>
+      <c r="AL36" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AM36" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AN36" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AO36" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AP36" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AQ36" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AR36" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AS36" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AT36" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AU36" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AV36" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AW36" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AX36" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AY36" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AZ36" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BA36" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BB36" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BC36" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BD36" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BE36" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BF36" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BG36" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BH36" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BI36" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BJ36" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BK36" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BL36" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BM36" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BN36" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BO36" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BP36" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BQ36" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BR36" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BS36" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BT36" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BU36" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BV36" s="2">
+        <f t="shared" ref="BV36:BY36" si="19">BU39</f>
+        <v>0</v>
+      </c>
+      <c r="BW36" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BX36" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BY36" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="4:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E37" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0</v>
+      </c>
+      <c r="N37" s="2">
+        <v>0</v>
+      </c>
+      <c r="O37" s="2">
+        <v>0</v>
+      </c>
+      <c r="P37" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>0</v>
+      </c>
+      <c r="R37" s="2">
+        <v>0</v>
+      </c>
+      <c r="S37" s="2">
+        <v>0</v>
+      </c>
+      <c r="T37" s="2">
+        <v>0</v>
+      </c>
+      <c r="U37" s="2">
+        <v>0</v>
+      </c>
+      <c r="V37" s="2">
+        <v>0</v>
+      </c>
+      <c r="W37" s="2">
+        <v>0</v>
+      </c>
+      <c r="X37" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="4:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E38" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55">
+        <f>(H$14=$F20)*$F$25*-1</f>
+        <v>0</v>
+      </c>
+      <c r="I38" s="55">
+        <f t="shared" ref="I38:BT38" si="20">(I$14=$F20)*$F$25*-1</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="S38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="T38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="V38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="W38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Z38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AA38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AB38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AC38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AD38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AE38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AF38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AG38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AH38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AI38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AK38" s="55">
+        <f>(AK$14=$F20)*$F$25*-1</f>
+        <v>-242.928</v>
+      </c>
+      <c r="AL38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AM38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AN38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AO38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AP38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AQ38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AR38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AS38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AT38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AU38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AV38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AW38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AX38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AY38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AZ38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BA38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BB38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BC38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BD38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BE38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BF38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BG38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BH38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BI38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BJ38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BK38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BL38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BM38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BN38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BO38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BP38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BQ38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BR38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BS38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BT38" s="55">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BU38" s="55">
+        <f t="shared" ref="BU38:BY38" si="21">(BU$14=$F20)*$F$25*-1</f>
+        <v>0</v>
+      </c>
+      <c r="BV38" s="55">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BW38" s="55">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BX38" s="55">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BY38" s="55">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="4:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E39" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H39" s="2">
+        <f>SUM(H36:H38)</f>
+        <v>242.928</v>
+      </c>
+      <c r="I39" s="2">
+        <f t="shared" ref="I39:BT39" si="22">SUM(I36:I38)</f>
+        <v>242.928</v>
+      </c>
+      <c r="J39" s="2">
+        <f t="shared" si="22"/>
+        <v>242.928</v>
+      </c>
+      <c r="K39" s="2">
+        <f t="shared" si="22"/>
+        <v>242.928</v>
+      </c>
+      <c r="L39" s="2">
+        <f t="shared" si="22"/>
+        <v>242.928</v>
+      </c>
+      <c r="M39" s="2">
+        <f t="shared" si="22"/>
+        <v>242.928</v>
+      </c>
+      <c r="N39" s="2">
+        <f t="shared" si="22"/>
+        <v>242.928</v>
+      </c>
+      <c r="O39" s="2">
+        <f t="shared" si="22"/>
+        <v>242.928</v>
+      </c>
+      <c r="P39" s="2">
+        <f t="shared" si="22"/>
+        <v>242.928</v>
+      </c>
+      <c r="Q39" s="2">
+        <f t="shared" si="22"/>
+        <v>242.928</v>
+      </c>
+      <c r="R39" s="2">
+        <f t="shared" si="22"/>
+        <v>242.928</v>
+      </c>
+      <c r="S39" s="2">
+        <f t="shared" si="22"/>
+        <v>242.928</v>
+      </c>
+      <c r="T39" s="2">
+        <f t="shared" si="22"/>
+        <v>242.928</v>
+      </c>
+      <c r="U39" s="2">
+        <f t="shared" si="22"/>
+        <v>242.928</v>
+      </c>
+      <c r="V39" s="2">
+        <f t="shared" si="22"/>
+        <v>242.928</v>
+      </c>
+      <c r="W39" s="2">
+        <f t="shared" si="22"/>
+        <v>242.928</v>
+      </c>
+      <c r="X39" s="2">
+        <f t="shared" si="22"/>
+        <v>242.928</v>
+      </c>
+      <c r="Y39" s="2">
+        <f t="shared" si="22"/>
+        <v>242.928</v>
+      </c>
+      <c r="Z39" s="2">
+        <f t="shared" si="22"/>
+        <v>242.928</v>
+      </c>
+      <c r="AA39" s="2">
+        <f t="shared" si="22"/>
+        <v>242.928</v>
+      </c>
+      <c r="AB39" s="2">
+        <f t="shared" si="22"/>
+        <v>242.928</v>
+      </c>
+      <c r="AC39" s="2">
+        <f t="shared" si="22"/>
+        <v>242.928</v>
+      </c>
+      <c r="AD39" s="2">
+        <f t="shared" si="22"/>
+        <v>242.928</v>
+      </c>
+      <c r="AE39" s="2">
+        <f t="shared" si="22"/>
+        <v>242.928</v>
+      </c>
+      <c r="AF39" s="2">
+        <f t="shared" si="22"/>
+        <v>242.928</v>
+      </c>
+      <c r="AG39" s="2">
+        <f t="shared" si="22"/>
+        <v>242.928</v>
+      </c>
+      <c r="AH39" s="2">
+        <f t="shared" si="22"/>
+        <v>242.928</v>
+      </c>
+      <c r="AI39" s="2">
+        <f t="shared" si="22"/>
+        <v>242.928</v>
+      </c>
+      <c r="AJ39" s="2">
+        <f t="shared" si="22"/>
+        <v>242.928</v>
+      </c>
+      <c r="AK39" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AL39" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AM39" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AN39" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AO39" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AP39" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AQ39" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AR39" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AS39" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AT39" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AU39" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AV39" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AW39" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AX39" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AY39" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AZ39" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BA39" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BB39" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BC39" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BD39" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BE39" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BF39" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BG39" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BH39" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BI39" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BJ39" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BK39" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BL39" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BM39" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BN39" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BO39" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BP39" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BQ39" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BR39" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BS39" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BT39" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BU39" s="2">
+        <f t="shared" ref="BU39:BY39" si="23">SUM(BU36:BU38)</f>
+        <v>0</v>
+      </c>
+      <c r="BV39" s="2">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BW39" s="2">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BX39" s="2">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BY39" s="2">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" scale="70" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D343408A-CA94-4914-B88F-C2B51C875129}">
   <dimension ref="A2:AE7"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -2955,7 +9910,7 @@
     </row>
     <row r="7" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2967,12 +9922,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D343408A-CA94-4914-B88F-C2B51C875129}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF54EDE-9ADE-4A06-999E-C7121BC2D349}">
   <dimension ref="A2:AE7"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3061,7 +10016,7 @@
     </row>
     <row r="7" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3073,12 +10028,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF54EDE-9ADE-4A06-999E-C7121BC2D349}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EEC162-C597-44D8-BBFD-62FF7388DFF4}">
   <dimension ref="A2:AE7"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3167,7 +10122,7 @@
     </row>
     <row r="7" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3179,8 +10134,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EEC162-C597-44D8-BBFD-62FF7388DFF4}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D16D763-C2CD-4838-9082-92BC0369E53F}">
   <dimension ref="A2:AE7"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -3273,7 +10228,7 @@
     </row>
     <row r="7" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -3285,8 +10240,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D16D763-C2CD-4838-9082-92BC0369E53F}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABC9297A-3FDF-4CB0-811D-DF05045D4A73}">
   <dimension ref="A2:AE7"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -3379,7 +10334,7 @@
     </row>
     <row r="7" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -3391,8 +10346,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABC9297A-3FDF-4CB0-811D-DF05045D4A73}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA84621-D1DA-4208-8423-C477EA5CE9E8}">
   <dimension ref="A2:AE7"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -3485,112 +10440,6 @@
     </row>
     <row r="7" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="70" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA84621-D1DA-4208-8423-C477EA5CE9E8}">
-  <dimension ref="A2:AE7"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="2.42578125" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:31" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE2" s="2"/>
-    </row>
-    <row r="3" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="AB3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD3" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="AB4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD4" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
-    </row>
-    <row r="6" spans="1:31" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="14">
-        <v>45545</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
     </row>
